--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>71002</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
@@ -1431,7 +1431,7 @@
         <v>48</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>71003</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>

--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930C1265-B917-436A-AC01-87E01CD87AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -182,14 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,345 +192,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -551,251 +214,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -810,61 +231,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1122,39 +499,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.6018518518519" customWidth="1"/>
-    <col min="3" max="3" width="28.5277777777778" customWidth="1"/>
-    <col min="4" max="5" width="13.2685185185185" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="28.53125" customWidth="1"/>
+    <col min="4" max="5" width="13.265625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.2037037037037" customWidth="1"/>
-    <col min="8" max="8" width="10.0648148148148" customWidth="1"/>
-    <col min="9" max="9" width="13.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="11" width="15.7962962962963" customWidth="1"/>
-    <col min="12" max="12" width="16.7962962962963" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.06640625" customWidth="1"/>
+    <col min="9" max="9" width="13.53125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="15.796875" customWidth="1"/>
+    <col min="12" max="12" width="16.796875" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="20.9259259259259" customWidth="1"/>
+    <col min="15" max="15" width="20.9296875" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="10.1296296296296" customWidth="1"/>
-    <col min="18" max="18" width="12.2037037037037" customWidth="1"/>
+    <col min="17" max="17" width="10.1328125" customWidth="1"/>
+    <col min="18" max="18" width="12.19921875" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1340,7 +717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>71001</v>
       </c>
@@ -1354,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1402,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>71002</v>
       </c>
@@ -1416,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1464,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>71003</v>
       </c>
@@ -1478,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -1526,81 +903,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="6:7">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="6:7">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="6:7">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="6:7">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,19 +8,60 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930C1265-B917-436A-AC01-87E01CD87AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0635AF48-ED6E-4DE3-83E1-6088F95EF6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jimmy</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2C2BC988-9351-48DA-9D8F-4E853BC83B6C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0=空节点
+1=功能型
+2=奖励型
+3=提交型
+4=生产型
+5=剧情型</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -160,23 +201,1726 @@
     <t>无</t>
   </si>
   <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>71001,71003</t>
-  </si>
-  <si>
-    <t>0,2</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初遇瑞迪亚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小溪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>横木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,21</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>救人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1001,71003,71017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1004,71002,71011</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1003,71005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1004</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1003,71007,71009</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1006,71008</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1007</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71006,71010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1009</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1003,71014,7102</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1011,71013</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1012</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1011,71015</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1014,71016</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1015,71020,71028</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1002,71018</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1017,71019</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1020,71021,71023</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1019,71016</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1019,71022</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1021,71028</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1019,71024</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1025,71026</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71023,71025,71026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71024,71027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1026</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1022,71016,71029</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1028,71030,71035</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1031,71032,71029</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1030</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1030,71033</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1032,71034</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1033,71036</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1036,71041,71037</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1034,71035</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71035,71038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1037,71039,71040</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1038</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1035,71042</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1041,71043,71045</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1042,71044</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1043</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1042</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1004,71006,71011</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1007,71009</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1008</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1010</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1014,71012</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1013</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1015</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1016</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1028</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1018</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1019</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1023,71021,71020</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1022</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1027</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1029</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71030,71035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71031,71032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1033</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1034</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1046</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,30</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1039,71040</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1043,71045</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1044</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALSE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meet_Ridia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1047</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给瑞迪亚斧头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0020</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1048</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71048</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give_Ridia_Axe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给瑞迪亚斧头后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>损坏的窑炉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一根横木挡住了你的去路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你遇到了一处损坏的窑炉，可以尝试修一修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1049</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0002</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完好的窑炉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被你修好的窑炉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000103,2000104</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hear_Star_Servant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encounter_Woman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1050</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>救下神秘人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0022</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1051</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>救下了神秘人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save_Camus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1052</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘零件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0018</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get_Ignition_Coil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,14 +1932,39 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,17 +1987,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,34 +2280,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="28.53125" customWidth="1"/>
-    <col min="4" max="5" width="13.265625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" customWidth="1"/>
-    <col min="8" max="8" width="10.06640625" customWidth="1"/>
-    <col min="9" max="9" width="13.53125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="15.796875" customWidth="1"/>
-    <col min="12" max="12" width="16.796875" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="20.9296875" customWidth="1"/>
-    <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="10.1328125" customWidth="1"/>
-    <col min="18" max="18" width="12.19921875" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.06640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.73046875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="15.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.86328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.19921875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.59765625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="52.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,16 +2328,16 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -609,16 +2390,16 @@
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -656,328 +2437,1819 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>71001</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1">
         <v>71002</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>71002</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>71002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7100371017</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>71003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>71004</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>71005</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>71006</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>71007</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>71008</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>71009</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>71010</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>71011</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>71012</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>71013</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>71014</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>71015</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>71016</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>71017</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>71018</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>71019</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>71020</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>71021</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>71022</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>71023</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>71024</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>71025</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>71026</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>71027</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>71028</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>71029</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>71030</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>71031</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>71032</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>71033</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>71034</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>71035</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>71036</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>71037</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>71038</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>71039</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>71040</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>71041</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>71042</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="S46" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>71043</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>71044</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>71045</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5">
-        <v>71003</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>71003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>71002</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.4">
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="S50" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="S52" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="R53" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0635AF48-ED6E-4DE3-83E1-6088F95EF6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA2F8B8-20AD-45E1-852A-5DF32E1A16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1410" windowWidth="21600" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -1914,6 +1914,33 @@
   </si>
   <si>
     <t>Get_Ignition_Coil</t>
+  </si>
+  <si>
+    <r>
+      <t>71003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>71017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2284,10 +2311,10 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2583,8 +2610,8 @@
       <c r="I6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="1">
-        <v>7100371017</v>
+      <c r="J6" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -4178,6 +4205,9 @@
       <c r="H54" s="7" t="s">
         <v>177</v>
       </c>
+      <c r="J54" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="L54" s="3" t="s">
         <v>204</v>
       </c>
@@ -4213,7 +4243,8 @@
       <c r="H55" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3" t="s">
         <v>206</v>
       </c>
     </row>

--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA2F8B8-20AD-45E1-852A-5DF32E1A16B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE94D33C-8A07-43E2-BFAD-F6B1AB17A2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1410" yWindow="1410" windowWidth="21600" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,23 +638,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1003,71014,7102</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1011,71013</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1935,11 +1918,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>71017</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71003,71014,71002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2311,10 +2299,10 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2527,22 +2515,22 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" s="6" t="b">
         <v>0</v>
@@ -2559,7 +2547,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -2593,7 +2581,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2611,7 +2599,7 @@
         <v>101</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2627,7 +2615,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2645,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2661,7 +2649,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -2679,7 +2667,7 @@
         <v>103</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2695,7 +2683,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2727,7 +2715,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2745,7 +2733,7 @@
         <v>105</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2761,7 +2749,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2779,7 +2767,7 @@
         <v>106</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2795,7 +2783,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2827,7 +2815,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2847,10 +2835,10 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
@@ -2864,7 +2852,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2895,7 +2883,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2910,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -2928,7 +2916,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2943,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -2961,7 +2949,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2976,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2992,7 +2980,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -3007,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -3025,7 +3013,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -3040,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -3058,7 +3046,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -3073,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -3091,7 +3079,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -3106,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -3124,7 +3112,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3139,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -3157,7 +3145,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -3172,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -3190,7 +3178,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -3205,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -3223,7 +3211,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -3238,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K25" s="3"/>
     </row>
@@ -3256,7 +3244,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -3271,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -3289,7 +3277,7 @@
         <v>45</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -3304,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -3322,7 +3310,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -3337,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K28" s="3"/>
     </row>
@@ -3355,7 +3343,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3370,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -3386,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3401,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K30" s="3"/>
     </row>
@@ -3419,7 +3407,7 @@
         <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3434,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -3447,10 +3435,10 @@
         <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -3465,23 +3453,23 @@
         <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.4">
@@ -3495,7 +3483,7 @@
         <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3510,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -3528,7 +3516,7 @@
         <v>45</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3543,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K34" s="3"/>
     </row>
@@ -3561,7 +3549,7 @@
         <v>45</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3576,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3592,7 +3580,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3607,10 +3595,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -3625,7 +3613,7 @@
         <v>45</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3640,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K37" s="3"/>
     </row>
@@ -3652,13 +3640,13 @@
         <v>71034</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3673,23 +3661,23 @@
         <v>0</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="P38" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.4">
@@ -3703,7 +3691,7 @@
         <v>45</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3718,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K39" s="3"/>
     </row>
@@ -3736,7 +3724,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -3751,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -3769,7 +3757,7 @@
         <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3784,10 +3772,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -3802,7 +3790,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -3817,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -3835,7 +3823,7 @@
         <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -3850,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3866,7 +3854,7 @@
         <v>45</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -3881,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -3897,7 +3885,7 @@
         <v>45</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -3912,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -3930,7 +3918,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -3945,15 +3933,15 @@
         <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.4">
@@ -3967,7 +3955,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -3982,17 +3970,17 @@
         <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="S47" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.4">
@@ -4006,7 +3994,7 @@
         <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4021,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -4037,7 +4025,7 @@
         <v>45</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -4052,229 +4040,229 @@
         <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="H50" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="S50" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" s="7" t="s">
+      <c r="H51" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O51" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="P51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="E53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K53" s="3"/>
       <c r="R53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M56" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="N56" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE94D33C-8A07-43E2-BFAD-F6B1AB17A2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBAD0B4-C9AC-42A9-8BD3-6170CF170664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1410" windowWidth="21600" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -515,23 +515,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1004,71002,71011</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1003,71005</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1928,6 +1911,10 @@
   </si>
   <si>
     <t>71003,71014,71002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71004,71002,71011,71006</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2302,7 +2289,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2515,22 +2502,22 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H4" s="6" t="b">
         <v>0</v>
@@ -2547,7 +2534,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -2581,7 +2568,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2599,7 +2586,7 @@
         <v>101</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2615,7 +2602,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2630,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2649,7 +2636,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -2664,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2683,7 +2670,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2698,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2715,7 +2702,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2730,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2749,7 +2736,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2764,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2783,7 +2770,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2798,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2815,7 +2802,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2830,15 +2817,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
@@ -2852,7 +2839,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2867,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2883,7 +2870,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2898,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -2916,7 +2903,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2931,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -2949,7 +2936,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2964,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2980,7 +2967,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2995,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -3013,7 +3000,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -3028,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -3046,7 +3033,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -3061,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -3079,7 +3066,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -3094,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -3112,7 +3099,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3127,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -3145,7 +3132,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -3160,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -3178,7 +3165,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -3193,10 +3180,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -3211,7 +3198,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -3226,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K25" s="3"/>
     </row>
@@ -3244,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -3259,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -3277,7 +3264,7 @@
         <v>45</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -3292,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -3310,7 +3297,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -3325,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K28" s="3"/>
     </row>
@@ -3343,7 +3330,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3358,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -3374,7 +3361,7 @@
         <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3389,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K30" s="3"/>
     </row>
@@ -3407,7 +3394,7 @@
         <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3422,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -3435,10 +3422,10 @@
         <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -3453,23 +3440,23 @@
         <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.4">
@@ -3483,7 +3470,7 @@
         <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3498,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -3516,7 +3503,7 @@
         <v>45</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3531,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K34" s="3"/>
     </row>
@@ -3549,7 +3536,7 @@
         <v>45</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3564,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3580,7 +3567,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3595,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -3613,7 +3600,7 @@
         <v>45</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3628,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K37" s="3"/>
     </row>
@@ -3640,13 +3627,13 @@
         <v>71034</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3661,23 +3648,23 @@
         <v>0</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="P38" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.4">
@@ -3691,7 +3678,7 @@
         <v>45</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3706,10 +3693,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K39" s="3"/>
     </row>
@@ -3724,7 +3711,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -3739,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -3757,7 +3744,7 @@
         <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3772,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -3790,7 +3777,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -3805,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -3823,7 +3810,7 @@
         <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -3838,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3854,7 +3841,7 @@
         <v>45</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -3869,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -3885,7 +3872,7 @@
         <v>45</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -3900,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -3918,7 +3905,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -3933,15 +3920,15 @@
         <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.4">
@@ -3955,7 +3942,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -3970,17 +3957,17 @@
         <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="S47" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.4">
@@ -3994,7 +3981,7 @@
         <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4009,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -4025,7 +4012,7 @@
         <v>45</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -4040,235 +4027,235 @@
         <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F50" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="H50" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="S50" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F51" s="7" t="s">
+      <c r="H51" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O51" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="P51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K53" s="3"/>
       <c r="R53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M56" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="N56" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBAD0B4-C9AC-42A9-8BD3-6170CF170664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF7DCBC-1A94-455E-AED2-324CC415803D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="1763" windowWidth="22147" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="563">
   <si>
     <t>id</t>
   </si>
@@ -1916,6 +1916,2902 @@
   <si>
     <t>71004,71002,71011,71006</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>72001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72003</t>
+  </si>
+  <si>
+    <t>72004</t>
+  </si>
+  <si>
+    <t>72005</t>
+  </si>
+  <si>
+    <t>72006</t>
+  </si>
+  <si>
+    <t>72007</t>
+  </si>
+  <si>
+    <t>72008</t>
+  </si>
+  <si>
+    <t>72009</t>
+  </si>
+  <si>
+    <t>72010</t>
+  </si>
+  <si>
+    <t>72011</t>
+  </si>
+  <si>
+    <t>72012</t>
+  </si>
+  <si>
+    <t>72013</t>
+  </si>
+  <si>
+    <t>72014</t>
+  </si>
+  <si>
+    <t>72015</t>
+  </si>
+  <si>
+    <t>72016</t>
+  </si>
+  <si>
+    <t>72017</t>
+  </si>
+  <si>
+    <t>72018</t>
+  </si>
+  <si>
+    <t>72019</t>
+  </si>
+  <si>
+    <t>72020</t>
+  </si>
+  <si>
+    <t>72021</t>
+  </si>
+  <si>
+    <t>72022</t>
+  </si>
+  <si>
+    <t>72023</t>
+  </si>
+  <si>
+    <t>72024</t>
+  </si>
+  <si>
+    <t>72025</t>
+  </si>
+  <si>
+    <t>72026</t>
+  </si>
+  <si>
+    <t>72027</t>
+  </si>
+  <si>
+    <t>72028</t>
+  </si>
+  <si>
+    <t>72029</t>
+  </si>
+  <si>
+    <t>72030</t>
+  </si>
+  <si>
+    <t>72031</t>
+  </si>
+  <si>
+    <t>72032</t>
+  </si>
+  <si>
+    <t>72033</t>
+  </si>
+  <si>
+    <t>72034</t>
+  </si>
+  <si>
+    <t>72035</t>
+  </si>
+  <si>
+    <t>72036</t>
+  </si>
+  <si>
+    <t>72037</t>
+  </si>
+  <si>
+    <t>72038</t>
+  </si>
+  <si>
+    <t>72039</t>
+  </si>
+  <si>
+    <t>72040</t>
+  </si>
+  <si>
+    <t>72041</t>
+  </si>
+  <si>
+    <t>72042</t>
+  </si>
+  <si>
+    <t>72043</t>
+  </si>
+  <si>
+    <t>72044</t>
+  </si>
+  <si>
+    <t>72045</t>
+  </si>
+  <si>
+    <t>72046</t>
+  </si>
+  <si>
+    <t>72047</t>
+  </si>
+  <si>
+    <t>72048</t>
+  </si>
+  <si>
+    <t>72049</t>
+  </si>
+  <si>
+    <t>72050</t>
+  </si>
+  <si>
+    <t>72051</t>
+  </si>
+  <si>
+    <t>72052</t>
+  </si>
+  <si>
+    <t>72053</t>
+  </si>
+  <si>
+    <t>72054</t>
+  </si>
+  <si>
+    <t>72055</t>
+  </si>
+  <si>
+    <t>72056</t>
+  </si>
+  <si>
+    <t>72057</t>
+  </si>
+  <si>
+    <t>72058</t>
+  </si>
+  <si>
+    <t>72059</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RUE</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,11</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,15</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,19</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,19</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,19</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,21</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,22</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>44</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72003,72008</t>
+  </si>
+  <si>
+    <t>72005,72015</t>
+  </si>
+  <si>
+    <t>72017,72008</t>
+  </si>
+  <si>
+    <t>72002,72012,72007</t>
+  </si>
+  <si>
+    <t>72003,72010,72018</t>
+  </si>
+  <si>
+    <t>72009,72019,72011</t>
+  </si>
+  <si>
+    <t>72010,72004</t>
+  </si>
+  <si>
+    <t>72021,72014</t>
+  </si>
+  <si>
+    <t>72013,72015</t>
+  </si>
+  <si>
+    <t>72014,72016,72022,72006</t>
+  </si>
+  <si>
+    <t>72015,72017</t>
+  </si>
+  <si>
+    <t>72007,72016,72023</t>
+  </si>
+  <si>
+    <t>72009,72025,72019</t>
+  </si>
+  <si>
+    <t>72018,72010,72026</t>
+  </si>
+  <si>
+    <t>72013,72032</t>
+  </si>
+  <si>
+    <t>72034,72015</t>
+  </si>
+  <si>
+    <t>72017,72024</t>
+  </si>
+  <si>
+    <t>72023,72025</t>
+  </si>
+  <si>
+    <t>72018,72024,72036</t>
+  </si>
+  <si>
+    <t>72019,72027</t>
+  </si>
+  <si>
+    <t>72020,72038,72026,72028</t>
+  </si>
+  <si>
+    <t>72027,72031,72029</t>
+  </si>
+  <si>
+    <t>72021,72033</t>
+  </si>
+  <si>
+    <t>72032,72034,72030</t>
+  </si>
+  <si>
+    <t>72033,72035,72022,72040</t>
+  </si>
+  <si>
+    <t>72025,72037,72039</t>
+  </si>
+  <si>
+    <t>72034,72043,72041</t>
+  </si>
+  <si>
+    <t>72036,72044</t>
+  </si>
+  <si>
+    <t>72042,72047</t>
+  </si>
+  <si>
+    <t>72046,72050</t>
+  </si>
+  <si>
+    <t>72045,72047,72051</t>
+  </si>
+  <si>
+    <t>72046,72048,72052,72044</t>
+  </si>
+  <si>
+    <t>72047,72053,72049</t>
+  </si>
+  <si>
+    <t>72048,72054</t>
+  </si>
+  <si>
+    <t>72002,72009</t>
+  </si>
+  <si>
+    <t>72007,72012</t>
+  </si>
+  <si>
+    <t>72018,72010</t>
+  </si>
+  <si>
+    <t>72011,72019,72009</t>
+  </si>
+  <si>
+    <t>72014,72022</t>
+  </si>
+  <si>
+    <t>72019,72025,72009</t>
+  </si>
+  <si>
+    <t>72032,72013</t>
+  </si>
+  <si>
+    <t>72018,72036</t>
+  </si>
+  <si>
+    <t>72020,72038,72028</t>
+  </si>
+  <si>
+    <t>72031,72029</t>
+  </si>
+  <si>
+    <t>72032,72034</t>
+  </si>
+  <si>
+    <t>72037,72039,72042</t>
+  </si>
+  <si>
+    <t>72041,72043</t>
+  </si>
+  <si>
+    <t>72045,72051</t>
+  </si>
+  <si>
+    <t>72046,72048,72052</t>
+  </si>
+  <si>
+    <t>72049,72053</t>
+  </si>
+  <si>
+    <t>72001,72002,72009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72018,72010,72026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3001</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3002</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>73003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73027</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73029</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73031</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73032</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73034</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73036</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73037</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73038</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73039</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73041</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73042</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73043</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73046</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73047</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73048</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73049</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73051</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73052</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73053</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73054</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>15,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,18</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,15</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,23</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,15</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,15</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4,17</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,25</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,19</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,30</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,30</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73002</t>
+  </si>
+  <si>
+    <t>73004</t>
+  </si>
+  <si>
+    <t>73007</t>
+  </si>
+  <si>
+    <t>73009</t>
+  </si>
+  <si>
+    <t>73016</t>
+  </si>
+  <si>
+    <t>73019</t>
+  </si>
+  <si>
+    <t>73018</t>
+  </si>
+  <si>
+    <t>73023</t>
+  </si>
+  <si>
+    <t>73022</t>
+  </si>
+  <si>
+    <t>73020</t>
+  </si>
+  <si>
+    <t>73026</t>
+  </si>
+  <si>
+    <t>73027</t>
+  </si>
+  <si>
+    <t>73031</t>
+  </si>
+  <si>
+    <t>73032</t>
+  </si>
+  <si>
+    <t>73033</t>
+  </si>
+  <si>
+    <t>73034</t>
+  </si>
+  <si>
+    <t>73035</t>
+  </si>
+  <si>
+    <t>73038</t>
+  </si>
+  <si>
+    <t>73037</t>
+  </si>
+  <si>
+    <t>73041</t>
+  </si>
+  <si>
+    <t>73047</t>
+  </si>
+  <si>
+    <t>73048</t>
+  </si>
+  <si>
+    <t>73051</t>
+  </si>
+  <si>
+    <t>73052</t>
+  </si>
+  <si>
+    <t>73005,73001,73006</t>
+  </si>
+  <si>
+    <t>73005,73006,73009</t>
+  </si>
+  <si>
+    <t>73003,73010,73005</t>
+  </si>
+  <si>
+    <t>73004,73002</t>
+  </si>
+  <si>
+    <t>73002,73007</t>
+  </si>
+  <si>
+    <t>73006,73008,73011</t>
+  </si>
+  <si>
+    <t>73008,73011,73006</t>
+  </si>
+  <si>
+    <t>73012,73013,7302</t>
+  </si>
+  <si>
+    <t>73012,73013</t>
+  </si>
+  <si>
+    <t>73004,73014</t>
+  </si>
+  <si>
+    <t>73007,73029</t>
+  </si>
+  <si>
+    <t>73010,73015,73016</t>
+  </si>
+  <si>
+    <t>73014,73022,73020</t>
+  </si>
+  <si>
+    <t>73014,73017,73018</t>
+  </si>
+  <si>
+    <t>73017,73018</t>
+  </si>
+  <si>
+    <t>73019,916</t>
+  </si>
+  <si>
+    <t>73015,73021,73024</t>
+  </si>
+  <si>
+    <t>73015,73024,73021</t>
+  </si>
+  <si>
+    <t>73025,73020,73028</t>
+  </si>
+  <si>
+    <t>73028,73020,73025</t>
+  </si>
+  <si>
+    <t>73015,73023</t>
+  </si>
+  <si>
+    <t>73021,73026</t>
+  </si>
+  <si>
+    <t>73027,73025</t>
+  </si>
+  <si>
+    <t>73021,73049</t>
+  </si>
+  <si>
+    <t>73011,73030,73035</t>
+  </si>
+  <si>
+    <t>73011,73035,73030</t>
+  </si>
+  <si>
+    <t>73029,73031</t>
+  </si>
+  <si>
+    <t>73030,73032</t>
+  </si>
+  <si>
+    <t>73031,73033</t>
+  </si>
+  <si>
+    <t>73032,73034</t>
+  </si>
+  <si>
+    <t>73029,73036,73039,73037</t>
+  </si>
+  <si>
+    <t>73036,73039,73037,73029</t>
+  </si>
+  <si>
+    <t>73035,73038</t>
+  </si>
+  <si>
+    <t>73035,73040</t>
+  </si>
+  <si>
+    <t>73039,73041</t>
+  </si>
+  <si>
+    <t>73040,73044,73043,73042</t>
+  </si>
+  <si>
+    <t>73044,73040,73043,73042</t>
+  </si>
+  <si>
+    <t>73045,73041,73046</t>
+  </si>
+  <si>
+    <t>73041,73045,73046</t>
+  </si>
+  <si>
+    <t>73044,73049</t>
+  </si>
+  <si>
+    <t>73049,73044</t>
+  </si>
+  <si>
+    <t>73044,73047</t>
+  </si>
+  <si>
+    <t>73048,73046</t>
+  </si>
+  <si>
+    <t>73028,73045,73050</t>
+  </si>
+  <si>
+    <t>73049,73051</t>
+  </si>
+  <si>
+    <t>73050,73052</t>
+  </si>
+  <si>
+    <t>73051,73053,73054</t>
+  </si>
+  <si>
+    <t>73053,73054</t>
   </si>
 </sst>
 </file>
@@ -1969,12 +4865,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1989,7 +4891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2008,6 +4910,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2283,13 +5194,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4252,6 +7163,3541 @@
         <v>177</v>
       </c>
     </row>
+    <row r="57" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H57" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H59" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H61" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H65" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H66" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H69" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H70" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H72" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H75" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H76" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H79" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H83" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H85" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H86" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H87" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H88" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H90" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H91" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H92" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H93" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H94" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H95" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H96" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H97" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H98" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H99" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H100" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H101" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H102" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H103" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H104" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H105" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H106" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H107" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H108" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H109" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H110" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H111" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F115" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F116" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H117" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A118" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A119" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H119" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="J119" s="12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A120" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H120" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A121" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H121" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A122" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H122" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A123" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H123" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A124" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H124" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A125" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H125" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A126" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H126" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A127" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H127" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A128" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H128" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A129" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H129" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A130" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H130" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A131" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H131" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A132" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H132" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J132" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A133" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H133" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A134" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H134" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A135" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H135" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A136" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H136" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A137" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H137" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A138" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H138" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A139" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H139" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A140" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H140" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A141" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H141" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A142" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H142" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A143" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H143" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A144" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H144" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A145" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="H145" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A146" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H146" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="J146" s="12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A147" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H147" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A148" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H148" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="J148" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A149" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H149" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="J149" s="12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A150" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H150" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="J150" s="12" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A151" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H151" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A152" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H152" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A153" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H153" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A154" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H154" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="J154" s="12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A155" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H155" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A156" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H156" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="J156" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A157" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H157" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A158" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H158" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="J158" s="12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A159" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H159" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A160" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H160" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A161" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H161" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="J161" s="12" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A162" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H162" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="J162" s="12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A163" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H163" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="J163" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A164" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H164" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="J164" s="12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A165" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="H165" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A166" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H166" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A167" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="H167" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A168" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H168" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="J168" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A169" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H169" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="J169" s="12" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A170" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H170" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A171" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H171" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78653C5-35B1-42E7-992B-A9636D3EA021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EDCB2F-9767-4D10-BF55-56AC75E98E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1020" windowWidth="20108" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13718" yWindow="945" windowWidth="14610" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$205</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="863">
   <si>
     <t>id</t>
   </si>
@@ -2055,7 +2055,126 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2,7</t>
+      <t>5,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,10</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2072,7 +2191,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5,7</t>
+      <t>2,10</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2089,7 +2208,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6,9</t>
+      <t>,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,13</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2106,7 +2242,109 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,10</t>
+      <t>3,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,13</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,13</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2123,7 +2361,58 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,10</t>
+      <t>,14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,15</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,16</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2140,7 +2429,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,10</t>
+      <t>,16</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2157,7 +2446,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,10</t>
+      <t>0,16</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2174,7 +2463,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3,10</t>
+      <t>9,16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,19</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2191,7 +2514,92 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9,10</t>
+      <t>9,19</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,21</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,22</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,24</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2208,7 +2616,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2,10</t>
+      <t>2,24</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,24</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2225,7 +2650,75 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,13</t>
+      <t>3,27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9,27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,27</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2242,567 +2735,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,13</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3,13</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6,13</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9,13</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2,13</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5,13</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5,11</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8,13</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,13</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,14</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8,15</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9,16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1,16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5,16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,19</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,19</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9,19</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,21</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9,22</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3,24</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6,24</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9,24</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2,24</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5,24</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3,27</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6,27</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9,27</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2,27</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5,27</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>2000</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2824,12 +2756,6 @@
     <t>72002,72012,72007</t>
   </si>
   <si>
-    <t>72003,72010,72018</t>
-  </si>
-  <si>
-    <t>72009,72019,72011</t>
-  </si>
-  <si>
     <t>72010,72004</t>
   </si>
   <si>
@@ -2851,9 +2777,6 @@
     <t>72009,72025,72019</t>
   </si>
   <si>
-    <t>72018,72010,72026</t>
-  </si>
-  <si>
     <t>72013,72032</t>
   </si>
   <si>
@@ -2875,9 +2798,6 @@
     <t>72020,72038,72026,72028</t>
   </si>
   <si>
-    <t>72027,72031,72029</t>
-  </si>
-  <si>
     <t>72021,72033</t>
   </si>
   <si>
@@ -2890,9 +2810,6 @@
     <t>72025,72037,72039</t>
   </si>
   <si>
-    <t>72034,72043,72041</t>
-  </si>
-  <si>
     <t>72036,72044</t>
   </si>
   <si>
@@ -2917,18 +2834,9 @@
     <t>72002,72009</t>
   </si>
   <si>
-    <t>72007,72012</t>
-  </si>
-  <si>
     <t>72018,72010</t>
   </si>
   <si>
-    <t>72011,72019,72009</t>
-  </si>
-  <si>
-    <t>72014,72022</t>
-  </si>
-  <si>
     <t>72019,72025,72009</t>
   </si>
   <si>
@@ -2941,18 +2849,9 @@
     <t>72020,72038,72028</t>
   </si>
   <si>
-    <t>72031,72029</t>
-  </si>
-  <si>
     <t>72032,72034</t>
   </si>
   <si>
-    <t>72037,72039,72042</t>
-  </si>
-  <si>
-    <t>72041,72043</t>
-  </si>
-  <si>
     <t>72045,72051</t>
   </si>
   <si>
@@ -2963,10 +2862,6 @@
   </si>
   <si>
     <t>72001,72002,72009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72018,72010,72026</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6009,6 +5904,1205 @@
   </si>
   <si>
     <t>72044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72027,72029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72027,72031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72009,72011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72018,72026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72034,72043</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72043</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72060</t>
+  </si>
+  <si>
+    <t>72061</t>
+  </si>
+  <si>
+    <t>72062</t>
+  </si>
+  <si>
+    <t>72063</t>
+  </si>
+  <si>
+    <t>72064</t>
+  </si>
+  <si>
+    <t>72065</t>
+  </si>
+  <si>
+    <t>72066</t>
+  </si>
+  <si>
+    <t>72067</t>
+  </si>
+  <si>
+    <t>72068</t>
+  </si>
+  <si>
+    <t>72069</t>
+  </si>
+  <si>
+    <t>72070</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,11</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,17</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,12</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,8</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2020,72057</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72017,72055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2055</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2057</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2055,72056,72058</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2056,72058</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2035</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2059,72060</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72034,72059,72060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2035,72061</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2061</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2060</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2030</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72033,72062,72064</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2009,72019</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72018,72026,72063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72003,72010,72018,72063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0004,10002</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到一个工地，放着一些建筑材料。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾回收站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许可以翻找出一些有用的东西。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200001</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废铁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到一些尖锐的废铁。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0004</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一具尸体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到一个背着背包的尸体。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0031</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废墟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坍塌的废墟拦住了你的去路。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0023</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72017,72008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72007,72012,72002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72021,72014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72014,72022,72006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方不远处有一家废弃的超市。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接超市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2063</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robber</t>
+  </si>
+  <si>
+    <t>超市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来强盗把这里当成了据点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0040,10041,10042</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3,3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0027</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴森别墅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的眼前是一栋别墅，但看起来十分阴森。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead_Body_In_House</t>
+  </si>
+  <si>
+    <t>普通别墅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的眼前是一栋别墅，看起来很普通。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10014,10044,10054</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方出现了一个人影……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meet_Drust</t>
+  </si>
+  <si>
+    <t>答应找人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72037,72039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁斯特的物资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁斯特给了你一些物资。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10032,10033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你来到了德鲁斯特夫人所居住的桥洞。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥洞之下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drusts_House</t>
+  </si>
+  <si>
+    <t>德鲁斯特的遗产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁斯特夫人剩下的东西。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁斯特的赠予</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁斯特夫人送给你很多东西。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009,10031,10042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drusts_Daughter</t>
+  </si>
+  <si>
+    <t>断桥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过河的桥断了，你无法继续前进。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0011</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到一个小巧精致的零件盒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11008,10009,10012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚重的铁门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0030</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0024</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入建筑的路被铁门挡住了。门上的锁链似乎可以剪开。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你推开了铁门，现在是进入建筑的时候了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72062,70064</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gods_Name</t>
+  </si>
+  <si>
+    <t>文件盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个看起来十分重要的文件盒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火葬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自火焰的超度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2070</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0030</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monks_Dead_Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高僧之遗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧侣留下的遗物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11007,10030,10040,10041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,4,4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All_In_Fire</t>
+  </si>
+  <si>
+    <t>11005,10009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的眼前是一栋别墅，看起来十分华丽。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华丽别墅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下储藏室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华的厨房，可能有些剩余的食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华的卧室，充满电子设备。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竟然有大量的油储存在这里，但你需要一些东西装走。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10041,10042,10019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3,20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009,10008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200002</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃的咖啡店。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10044,10014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冰机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我超，冰！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200003</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6070,7 +7164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6089,6 +7183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6102,7 +7202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -6137,6 +7237,15 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6413,13 +7522,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T194"/>
+  <dimension ref="A1:T205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C196" sqref="C196"/>
+      <selection pane="bottomRight" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6657,14 +7766,14 @@
       <c r="A5" s="15">
         <v>71001</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>48</v>
+      <c r="B5" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -6692,7 +7801,7 @@
         <v>71002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>45</v>
@@ -6726,7 +7835,7 @@
         <v>71003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>45</v>
@@ -6760,7 +7869,7 @@
         <v>71004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -6794,10 +7903,10 @@
         <v>71005</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>182</v>
@@ -6821,10 +7930,10 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
@@ -6832,7 +7941,7 @@
         <v>71006</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>45</v>
@@ -6866,7 +7975,7 @@
         <v>71007</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
@@ -6900,10 +8009,10 @@
         <v>71008</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>174</v>
@@ -6927,7 +8036,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="R12" s="3" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
@@ -6935,10 +8044,10 @@
         <v>71009</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>161</v>
@@ -6970,10 +8079,10 @@
         <v>71010</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>164</v>
@@ -6996,10 +8105,10 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
@@ -7007,10 +8116,10 @@
         <v>71011</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>182</v>
@@ -7038,7 +8147,7 @@
         <v>172</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
@@ -7046,7 +8155,7 @@
         <v>71012</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>45</v>
@@ -7079,10 +8188,10 @@
         <v>71013</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>161</v>
@@ -7100,12 +8209,12 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="S17" s="1" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
@@ -7113,7 +8222,7 @@
         <v>71014</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>45</v>
@@ -7146,10 +8255,10 @@
         <v>71015</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>182</v>
@@ -7174,10 +8283,10 @@
       </c>
       <c r="K19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
@@ -7185,7 +8294,7 @@
         <v>71016</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>45</v>
@@ -7218,10 +8327,10 @@
         <v>71017</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>182</v>
@@ -7246,10 +8355,10 @@
       </c>
       <c r="K21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.4">
@@ -7257,7 +8366,7 @@
         <v>71018</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>45</v>
@@ -7278,10 +8387,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -7290,10 +8399,10 @@
         <v>71019</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>164</v>
@@ -7321,10 +8430,10 @@
         <v>158</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.4">
@@ -7332,7 +8441,7 @@
         <v>71020</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
@@ -7365,7 +8474,7 @@
         <v>71021</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>45</v>
@@ -7398,7 +8507,7 @@
         <v>71022</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>45</v>
@@ -7419,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -7434,7 +8543,7 @@
         <v>71</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>154</v>
@@ -7464,7 +8573,7 @@
         <v>71024</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>45</v>
@@ -7497,10 +8606,10 @@
         <v>71025</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>182</v>
@@ -7523,10 +8632,10 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
@@ -7534,7 +8643,7 @@
         <v>71026</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>45</v>
@@ -7567,10 +8676,10 @@
         <v>71027</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>164</v>
@@ -7593,13 +8702,13 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>164</v>
@@ -7613,7 +8722,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>164</v>
@@ -7655,7 +8764,7 @@
         <v>71029</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>45</v>
@@ -7688,7 +8797,7 @@
         <v>71030</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>45</v>
@@ -7721,10 +8830,10 @@
         <v>71031</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>164</v>
@@ -7746,19 +8855,19 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>158</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>154</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.4">
@@ -7766,7 +8875,7 @@
         <v>71032</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>45</v>
@@ -7787,10 +8896,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -7799,7 +8908,7 @@
         <v>71033</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
@@ -7823,7 +8932,7 @@
         <v>121</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="K37" s="3"/>
     </row>
@@ -7835,7 +8944,7 @@
         <v>170</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>164</v>
@@ -7856,7 +8965,7 @@
         <v>122</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>153</v>
@@ -7882,7 +8991,7 @@
         <v>71</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>154</v>
@@ -7912,7 +9021,7 @@
         <v>71036</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -7936,7 +9045,7 @@
         <v>124</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -7945,7 +9054,7 @@
         <v>71037</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
@@ -7978,10 +9087,10 @@
         <v>71038</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>161</v>
@@ -8004,7 +9113,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="S42" s="1" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.4">
@@ -8012,10 +9121,10 @@
         <v>71039</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>161</v>
@@ -8027,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="H43" s="6" t="b">
         <v>0</v>
@@ -8038,7 +9147,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="S43" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.4">
@@ -8046,10 +9155,10 @@
         <v>71040</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>161</v>
@@ -8072,7 +9181,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="S44" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.4">
@@ -8080,7 +9189,7 @@
         <v>71041</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>45</v>
@@ -8101,10 +9210,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -8113,10 +9222,10 @@
         <v>71042</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>161</v>
@@ -8150,10 +9259,10 @@
         <v>71043</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>161</v>
@@ -8185,10 +9294,10 @@
         <v>71044</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>182</v>
@@ -8211,10 +9320,10 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
@@ -8222,10 +9331,10 @@
         <v>71045</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>161</v>
@@ -8247,10 +9356,10 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
@@ -8258,10 +9367,10 @@
         <v>153</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>161</v>
@@ -8292,10 +9401,10 @@
         <v>163</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>164</v>
@@ -8322,7 +9431,7 @@
         <v>154</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.4">
@@ -8330,7 +9439,7 @@
         <v>167</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>47</v>
@@ -8360,7 +9469,7 @@
         <v>173</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>174</v>
@@ -8376,7 +9485,7 @@
       </c>
       <c r="K53" s="3"/>
       <c r="R53" s="3" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
@@ -8384,10 +9493,10 @@
         <v>177</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>164</v>
@@ -8422,7 +9531,7 @@
         <v>179</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>47</v>
@@ -8449,10 +9558,10 @@
         <v>181</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>182</v>
@@ -8467,7 +9576,7 @@
         <v>160</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>154</v>
@@ -8475,13 +9584,13 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A57" s="14" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>161</v>
@@ -8490,10 +9599,10 @@
         <v>154</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>160</v>
@@ -8504,15 +9613,15 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="S57" s="1" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A58" s="14" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>47</v>
@@ -8524,32 +9633,32 @@
         <v>154</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>174</v>
@@ -8558,66 +9667,66 @@
         <v>154</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="R59" s="3" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="S60" s="1" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A61" s="14" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>161</v>
@@ -8626,88 +9735,88 @@
         <v>154</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="S61" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A62" s="14" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A63" s="14" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>161</v>
@@ -8715,44 +9824,44 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A64" s="14" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="S64" s="1" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A65" s="14" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>47</v>
@@ -8761,32 +9870,32 @@
         <v>135</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A66" s="14" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>47</v>
@@ -8795,66 +9904,66 @@
         <v>135</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A67" s="14" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="R67" s="3" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A68" s="14" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>47</v>
@@ -8863,7 +9972,7 @@
         <v>135</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>160</v>
@@ -8872,17 +9981,17 @@
         <v>160</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A69" s="14" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>47</v>
@@ -8891,7 +10000,7 @@
         <v>182</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>160</v>
@@ -8900,27 +10009,27 @@
         <v>160</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A70" s="14" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>160</v>
@@ -8931,15 +10040,15 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="R70" s="3" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A71" s="14" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>47</v>
@@ -8948,7 +10057,7 @@
         <v>135</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>160</v>
@@ -8957,26 +10066,26 @@
         <v>160</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A72" s="14" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>160</v>
@@ -8985,7 +10094,7 @@
         <v>160</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>154</v>
@@ -8993,19 +10102,19 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A73" s="14" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>160</v>
@@ -9014,29 +10123,29 @@
         <v>160</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>164</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A74" s="14" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>47</v>
@@ -9045,7 +10154,7 @@
         <v>161</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>160</v>
@@ -9056,24 +10165,24 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="S74" s="1" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A75" s="14" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>160</v>
@@ -9082,35 +10191,35 @@
         <v>160</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>154</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A76" s="14" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>160</v>
@@ -9119,27 +10228,27 @@
         <v>160</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A77" s="14" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>160</v>
@@ -9148,26 +10257,26 @@
         <v>160</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A78" s="14" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>160</v>
@@ -9176,29 +10285,29 @@
         <v>160</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>154</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A79" s="14" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>47</v>
@@ -9207,7 +10316,7 @@
         <v>161</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>160</v>
@@ -9218,7 +10327,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="S79" s="1" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="80" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -9244,18 +10353,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A81" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>48</v>
+      <c r="B81" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>182</v>
@@ -9272,14 +10381,16 @@
       <c r="I81" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
+      <c r="J81" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A82" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>47</v>
+      <c r="B82" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>47</v>
@@ -9300,18 +10411,18 @@
         <v>0</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A83" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>47</v>
+      <c r="B83" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>47</v>
@@ -9332,24 +10443,24 @@
         <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A84" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>47</v>
+      <c r="B84" s="3" t="s">
+        <v>756</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>47</v>
+        <v>759</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>188</v>
@@ -9367,19 +10478,25 @@
         <v>199</v>
       </c>
       <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
+      <c r="M84" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A85" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>47</v>
+      <c r="B85" s="3" t="s">
+        <v>760</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>47</v>
+        <v>761</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>188</v>
@@ -9396,13 +10513,17 @@
       <c r="I85" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A86" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>47</v>
+      <c r="B86" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>47</v>
@@ -9423,18 +10544,18 @@
         <v>0</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A87" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>47</v>
+      <c r="B87" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>47</v>
@@ -9455,18 +10576,18 @@
         <v>0</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A88" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A88" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>47</v>
+      <c r="B88" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>47</v>
@@ -9487,18 +10608,18 @@
         <v>0</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A89" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>47</v>
+      <c r="B89" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>47</v>
@@ -9519,18 +10640,18 @@
         <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>308</v>
+        <v>755</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A90" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>47</v>
+      <c r="B90" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>47</v>
@@ -9545,24 +10666,24 @@
         <v>248</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>258</v>
+        <v>712</v>
       </c>
       <c r="H90" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>309</v>
+        <v>713</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A91" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>47</v>
+      <c r="B91" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>47</v>
@@ -9577,30 +10698,30 @@
         <v>248</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H91" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A92" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>47</v>
+      <c r="B92" s="3" t="s">
+        <v>763</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>47</v>
+        <v>764</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>188</v>
@@ -9609,7 +10730,7 @@
         <v>248</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H92" s="6" t="b">
         <v>0</v>
@@ -9617,19 +10738,25 @@
       <c r="I92" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
+      <c r="M92" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A93" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>47</v>
+      <c r="B93" s="3" t="s">
+        <v>766</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>47</v>
+        <v>767</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>188</v>
@@ -9638,24 +10765,30 @@
         <v>248</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H93" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A94" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>47</v>
+      <c r="B94" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>47</v>
@@ -9670,24 +10803,24 @@
         <v>248</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H94" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A95" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>47</v>
+      <c r="B95" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>47</v>
@@ -9702,30 +10835,30 @@
         <v>248</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H95" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A96" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>47</v>
+      <c r="B96" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>188</v>
@@ -9734,30 +10867,30 @@
         <v>248</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H96" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A97" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>47</v>
+      <c r="B97" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>47</v>
+        <v>770</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>188</v>
@@ -9766,33 +10899,42 @@
         <v>248</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H97" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A98" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>47</v>
+      <c r="B98" s="3" t="s">
+        <v>643</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>47</v>
+        <v>779</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>188</v>
@@ -9801,30 +10943,33 @@
         <v>248</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A99" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>47</v>
+      <c r="B99" s="3" t="s">
+        <v>783</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>47</v>
+        <v>784</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>188</v>
@@ -9833,24 +10978,30 @@
         <v>248</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>317</v>
+        <v>754</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A100" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A100" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>47</v>
+      <c r="B100" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>47</v>
@@ -9865,21 +11016,24 @@
         <v>248</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>275</v>
+        <v>711</v>
       </c>
       <c r="H100" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A101" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A101" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>47</v>
+      <c r="B101" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>47</v>
@@ -9894,24 +11048,24 @@
         <v>248</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A102" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A102" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>47</v>
+      <c r="B102" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>47</v>
@@ -9926,24 +11080,24 @@
         <v>248</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H102" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A103" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>47</v>
+      <c r="B103" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>47</v>
@@ -9958,24 +11112,24 @@
         <v>248</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H103" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A104" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A104" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>47</v>
+      <c r="B104" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>47</v>
@@ -9990,24 +11144,24 @@
         <v>248</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H104" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A105" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A105" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>47</v>
+      <c r="B105" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>47</v>
@@ -10022,30 +11176,30 @@
         <v>248</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H105" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A106" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A106" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>47</v>
+      <c r="B106" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>47</v>
+        <v>770</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>188</v>
@@ -10054,30 +11208,43 @@
         <v>248</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H106" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="J106" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A107" s="15" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A107" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>47</v>
+      <c r="B107" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>188</v>
@@ -10086,24 +11253,24 @@
         <v>248</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H107" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A108" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A108" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>47</v>
+      <c r="B108" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>47</v>
@@ -10118,30 +11285,30 @@
         <v>248</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H108" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>325</v>
+        <v>705</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A109" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A109" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>47</v>
+      <c r="B109" s="3" t="s">
+        <v>788</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>47</v>
+        <v>789</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>188</v>
@@ -10150,7 +11317,7 @@
         <v>248</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H109" s="6" t="b">
         <v>0</v>
@@ -10158,19 +11325,22 @@
       <c r="I109" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A110" s="1" t="s">
+      <c r="S109" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A110" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>47</v>
+      <c r="B110" s="3" t="s">
+        <v>824</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>47</v>
+        <v>825</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>188</v>
@@ -10179,27 +11349,33 @@
         <v>248</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H110" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A111" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A111" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>47</v>
+      <c r="B111" s="3" t="s">
+        <v>791</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>47</v>
+        <v>792</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>188</v>
@@ -10208,21 +11384,27 @@
         <v>248</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A112" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A112" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>47</v>
+      <c r="B112" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>47</v>
@@ -10237,30 +11419,30 @@
         <v>248</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H112" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A113" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A113" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>47</v>
+      <c r="B113" s="3" t="s">
+        <v>820</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>47</v>
+        <v>823</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>188</v>
@@ -10269,24 +11451,36 @@
         <v>248</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H113" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A114" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A114" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>47</v>
+      <c r="B114" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>47</v>
@@ -10301,24 +11495,24 @@
         <v>248</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H114" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A115" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A115" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>47</v>
+      <c r="B115" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>47</v>
@@ -10333,27 +11527,30 @@
         <v>248</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H115" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A116" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A116" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>47</v>
+      <c r="B116" s="3" t="s">
+        <v>643</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>47</v>
+        <v>795</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>188</v>
@@ -10362,30 +11559,33 @@
         <v>248</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H116" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A117" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A117" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>47</v>
+      <c r="B117" s="3" t="s">
+        <v>800</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>47</v>
+        <v>801</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>188</v>
@@ -10394,7 +11594,7 @@
         <v>248</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H117" s="6" t="b">
         <v>0</v>
@@ -10403,13 +11603,19 @@
         <v>224</v>
       </c>
       <c r="J117" s="3"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A118" s="1" t="s">
+      <c r="M117" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A118" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>47</v>
+      <c r="B118" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>47</v>
@@ -10424,28 +11630,30 @@
         <v>248</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>286</v>
+        <v>710</v>
       </c>
       <c r="H118" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J118" s="3"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A119" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A119" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>47</v>
+      <c r="B119" s="3" t="s">
+        <v>804</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>47</v>
+        <v>803</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>188</v>
@@ -10454,7 +11662,7 @@
         <v>248</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H119" s="6" t="b">
         <v>0</v>
@@ -10463,19 +11671,22 @@
         <v>224</v>
       </c>
       <c r="J119" s="3"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A120" s="1" t="s">
+      <c r="S119" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A120" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>47</v>
+      <c r="B120" s="3" t="s">
+        <v>766</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>188</v>
@@ -10484,60 +11695,58 @@
         <v>248</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H120" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>330</v>
+        <v>715</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A121" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D121" s="3" t="s">
+      <c r="C121" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F121" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H121" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J121" s="3"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A122" s="1" t="s">
+      <c r="F121" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G121" s="19"/>
+      <c r="H121" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="J121" s="19"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A122" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>47</v>
+      <c r="B122" s="3" t="s">
+        <v>813</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>47</v>
+        <v>814</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>188</v>
@@ -10546,34 +11755,43 @@
         <v>248</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H122" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A123" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q122" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A123" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>47</v>
+      <c r="B123" s="3" t="s">
+        <v>836</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>47</v>
+        <v>837</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>188</v>
@@ -10582,28 +11800,34 @@
         <v>248</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H123" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>228</v>
+        <v>834</v>
       </c>
       <c r="J123" s="3"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A124" s="1" t="s">
+      <c r="M123" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A124" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>47</v>
+      <c r="B124" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>188</v>
@@ -10612,24 +11836,24 @@
         <v>248</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H124" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A125" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>47</v>
+      <c r="B125" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>47</v>
@@ -10644,24 +11868,24 @@
         <v>248</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H125" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A126" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>47</v>
+      <c r="B126" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>47</v>
@@ -10676,24 +11900,24 @@
         <v>248</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H126" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A127" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A127" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>47</v>
+      <c r="B127" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>47</v>
@@ -10708,24 +11932,24 @@
         <v>248</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H127" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A128" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A128" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>47</v>
+      <c r="B128" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>47</v>
@@ -10740,24 +11964,24 @@
         <v>248</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H128" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A129" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A129" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>47</v>
+      <c r="B129" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>47</v>
@@ -10772,24 +11996,24 @@
         <v>248</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H129" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A130" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>47</v>
+      <c r="B130" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>47</v>
@@ -10804,7 +12028,7 @@
         <v>248</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H130" s="6" t="b">
         <v>0</v>
@@ -10813,18 +12037,18 @@
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A131" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>47</v>
+      <c r="B131" s="3" t="s">
+        <v>816</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>47</v>
+        <v>817</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>188</v>
@@ -10833,7 +12057,7 @@
         <v>248</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H131" s="6" t="b">
         <v>0</v>
@@ -10841,13 +12065,19 @@
       <c r="I131" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A132" s="1" t="s">
+      <c r="M131" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A132" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>47</v>
+      <c r="B132" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>47</v>
@@ -10862,7 +12092,7 @@
         <v>248</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H132" s="6" t="b">
         <v>0</v>
@@ -10871,12 +12101,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A133" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>47</v>
+      <c r="B133" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>47</v>
@@ -10891,7 +12121,7 @@
         <v>248</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H133" s="6" t="b">
         <v>0</v>
@@ -10900,12 +12130,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A134" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>47</v>
+      <c r="B134" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>47</v>
@@ -10920,7 +12150,7 @@
         <v>248</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H134" s="6" t="b">
         <v>0</v>
@@ -10929,214 +12159,284 @@
         <v>237</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A135" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>47</v>
+      <c r="B135" s="3" t="s">
+        <v>844</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>47</v>
+        <v>843</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F135" s="6" t="b">
-        <v>0</v>
+      <c r="F135" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>728</v>
       </c>
       <c r="H135" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A136" s="1" t="s">
+      <c r="I135" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A136" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>47</v>
+      <c r="B136" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>47</v>
+        <v>848</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F136" s="6" t="b">
-        <v>0</v>
+      <c r="F136" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>729</v>
       </c>
       <c r="H136" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A137" s="1" t="s">
+      <c r="I136" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="M136" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A137" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>47</v>
+      <c r="B137" s="3" t="s">
+        <v>846</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>47</v>
+        <v>849</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F137" s="6" t="b">
-        <v>0</v>
+      <c r="F137" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>730</v>
       </c>
       <c r="H137" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A138" s="1" t="s">
+      <c r="I137" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A138" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>47</v>
+      <c r="B138" s="3" t="s">
+        <v>847</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>47</v>
+        <v>850</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F138" s="6" t="b">
-        <v>0</v>
+      <c r="F138" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>731</v>
       </c>
       <c r="H138" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A139" s="1" t="s">
+      <c r="I138" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="R138" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A139" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>47</v>
+      <c r="B139" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>47</v>
+        <v>857</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F139" s="6" t="b">
-        <v>0</v>
+      <c r="F139" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>732</v>
       </c>
       <c r="H139" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H140" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A141" s="3" t="s">
-        <v>358</v>
+      <c r="I139" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A140" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="H140" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A141" s="15" t="s">
+        <v>718</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>48</v>
+        <v>860</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>47</v>
+        <v>861</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A142" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>47</v>
+        <v>734</v>
+      </c>
+      <c r="H141" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="R141" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A142" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>47</v>
+        <v>829</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>413</v>
+        <v>735</v>
       </c>
       <c r="H142" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I142" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="J142" s="12" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A143" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>47</v>
+      <c r="I142" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A143" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>47</v>
@@ -11145,59 +12445,71 @@
         <v>134</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>414</v>
+        <v>736</v>
       </c>
       <c r="H143" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I143" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A144" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>47</v>
+      <c r="I143" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A144" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>830</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>47</v>
+        <v>831</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>415</v>
+        <v>737</v>
       </c>
       <c r="H144" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I144" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="J144" s="12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A145" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>47</v>
+      <c r="I144" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="L144" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="P144" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A145" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>780</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>47</v>
@@ -11206,30 +12518,24 @@
         <v>134</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>416</v>
+        <v>188</v>
+      </c>
+      <c r="F145" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="H145" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I145" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="J145" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A146" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>47</v>
+      <c r="K145" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A146" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>797</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>47</v>
@@ -11238,216 +12544,186 @@
         <v>134</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>417</v>
+        <v>188</v>
+      </c>
+      <c r="F146" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="H146" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I146" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="J146" s="12" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A147" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>47</v>
+      <c r="K146" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A147" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>804</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>47</v>
+        <v>803</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>418</v>
+        <v>188</v>
+      </c>
+      <c r="F147" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="H147" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I147" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="J147" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A148" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>47</v>
+      <c r="S147" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A148" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>806</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>47</v>
+        <v>807</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>419</v>
+        <v>188</v>
+      </c>
+      <c r="F148" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="H148" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I148" s="12" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A149" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>47</v>
+      <c r="M148" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A149" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>808</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>47</v>
+        <v>809</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>420</v>
+        <v>188</v>
+      </c>
+      <c r="F149" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="H149" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I149" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A150" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>47</v>
+      <c r="M149" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A150" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>830</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>47</v>
+        <v>831</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>421</v>
+        <v>188</v>
+      </c>
+      <c r="F150" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="H150" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I150" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A151" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H151" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I151" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="S150" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H151" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A152" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>47</v>
+        <v>342</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>357</v>
+        <v>164</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H152" s="6" t="b">
-        <v>0</v>
+        <v>396</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+        <v>447</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>47</v>
@@ -11456,27 +12732,30 @@
         <v>47</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>357</v>
+        <v>164</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="H153" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+        <v>471</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>47</v>
@@ -11488,27 +12767,24 @@
         <v>134</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>68</v>
+      <c r="G154" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="H154" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="J154" s="12" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A155" s="3" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>47</v>
@@ -11520,27 +12796,27 @@
         <v>134</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="H155" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A156" s="3" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>47</v>
@@ -11552,27 +12828,27 @@
         <v>134</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="H156" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>47</v>
@@ -11584,24 +12860,27 @@
         <v>134</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="H157" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>47</v>
@@ -11613,27 +12892,27 @@
         <v>134</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="H158" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A159" s="3" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>47</v>
@@ -11645,24 +12924,24 @@
         <v>134</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="H159" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>47</v>
@@ -11674,27 +12953,28 @@
         <v>134</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="H160" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="J160" s="12" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+        <v>478</v>
+      </c>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="3" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>47</v>
@@ -11706,27 +12986,28 @@
         <v>134</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="H161" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="J161" s="12" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+        <v>480</v>
+      </c>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="3" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>47</v>
@@ -11738,27 +13019,28 @@
         <v>134</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="H162" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="J162" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="3" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>47</v>
@@ -11770,24 +13052,24 @@
         <v>134</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="H163" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" s="3" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>47</v>
@@ -11799,24 +13081,24 @@
         <v>134</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="H164" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>47</v>
@@ -11828,27 +13110,27 @@
         <v>134</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G165" s="3" t="s">
-        <v>435</v>
+      <c r="G165" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H165" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" s="3" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>47</v>
@@ -11860,27 +13142,27 @@
         <v>134</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="H166" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" s="3" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>47</v>
@@ -11892,24 +13174,27 @@
         <v>134</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="H167" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+        <v>484</v>
+      </c>
+      <c r="J167" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>47</v>
@@ -11921,27 +13206,24 @@
         <v>134</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H168" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="J168" s="12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>47</v>
@@ -11953,27 +13235,27 @@
         <v>134</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="H169" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" s="3" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>47</v>
@@ -11985,27 +13267,24 @@
         <v>134</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>274</v>
+        <v>413</v>
       </c>
       <c r="H170" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="J170" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" s="3" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>47</v>
@@ -12017,27 +13296,27 @@
         <v>134</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H171" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>47</v>
@@ -12049,27 +13328,27 @@
         <v>134</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="H172" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>47</v>
@@ -12081,27 +13360,27 @@
         <v>134</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="H173" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I173" s="12" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>47</v>
@@ -12113,24 +13392,24 @@
         <v>134</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="H174" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" s="3" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>47</v>
@@ -12142,27 +13421,24 @@
         <v>134</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="H175" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="J175" s="12" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" s="3" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>47</v>
@@ -12174,24 +13450,27 @@
         <v>134</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F176" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="H176" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I176" s="12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
+        <v>492</v>
+      </c>
+      <c r="J176" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" s="3" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>47</v>
@@ -12203,27 +13482,27 @@
         <v>134</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="H177" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="J177" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" s="3" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>47</v>
@@ -12235,24 +13514,24 @@
         <v>134</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="H178" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" s="3" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>47</v>
@@ -12264,27 +13543,27 @@
         <v>134</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="H179" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" s="3" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>47</v>
@@ -12296,27 +13575,27 @@
         <v>134</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>448</v>
+        <v>57</v>
       </c>
       <c r="H180" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I180" s="12" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>47</v>
@@ -12328,27 +13607,27 @@
         <v>134</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>449</v>
+        <v>273</v>
       </c>
       <c r="H181" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I181" s="12" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" s="3" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>47</v>
@@ -12360,24 +13639,27 @@
         <v>134</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="H182" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
+        <v>498</v>
+      </c>
+      <c r="J182" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" s="3" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>47</v>
@@ -12389,24 +13671,27 @@
         <v>134</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="H183" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
+        <v>499</v>
+      </c>
+      <c r="J183" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" s="3" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>47</v>
@@ -12418,27 +13703,27 @@
         <v>134</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="H184" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>47</v>
@@ -12450,27 +13735,24 @@
         <v>134</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F185" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="H185" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="J185" s="12" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" s="3" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>47</v>
@@ -12482,27 +13764,27 @@
         <v>134</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="H186" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I186" s="12" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187" s="3" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>47</v>
@@ -12514,27 +13796,24 @@
         <v>134</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="H187" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I187" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="J187" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>47</v>
@@ -12546,24 +13825,27 @@
         <v>134</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="H188" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
+        <v>503</v>
+      </c>
+      <c r="J188" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" s="3" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>47</v>
@@ -12575,28 +13857,24 @@
         <v>134</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="H189" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I189" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" s="3" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>47</v>
@@ -12608,28 +13886,27 @@
         <v>134</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="H190" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="J190" s="12"/>
-      <c r="K190" s="12" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+      <c r="J190" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" s="3" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>47</v>
@@ -12641,27 +13918,27 @@
         <v>134</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="H191" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I191" s="12" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="J191" s="12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" s="3" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>47</v>
@@ -12673,27 +13950,27 @@
         <v>134</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F192" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="H192" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I192" s="12" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="J192" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" s="3" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>47</v>
@@ -12705,24 +13982,24 @@
         <v>134</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="H193" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" s="3" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>47</v>
@@ -12734,23 +14011,368 @@
         <v>134</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="H194" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>486</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A195" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H195" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="J195" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A196" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H196" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="J196" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A197" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H197" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I197" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="J197" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A198" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H198" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I198" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J198" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A199" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H199" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A200" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H200" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I200" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A201" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H201" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I201" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A202" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H202" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="J202" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A203" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H203" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="J203" s="12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A204" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H204" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A205" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H205" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I205" s="12" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F194" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="F1:F205" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EDCB2F-9767-4D10-BF55-56AC75E98E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795AF856-BCE5-4199-9E1B-F0F3996ED1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13718" yWindow="945" windowWidth="14610" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="3315" windowWidth="20108" windowHeight="13058" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="863">
   <si>
     <t>id</t>
   </si>
@@ -7525,10 +7525,10 @@
   <dimension ref="A1:T205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C145" sqref="C145"/>
+      <selection pane="bottomRight" activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -11730,9 +11730,7 @@
       <c r="H121" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="I121" s="19" t="s">
-        <v>716</v>
-      </c>
+      <c r="I121" s="19"/>
       <c r="J121" s="19"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.4">

--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795AF856-BCE5-4199-9E1B-F0F3996ED1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228D2F1E-D43F-4454-AFD4-884553456364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="3315" windowWidth="20108" windowHeight="13058" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="1335" windowWidth="20363" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$207</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="866">
   <si>
     <t>id</t>
   </si>
@@ -7103,6 +7103,18 @@
       </rPr>
       <t>200003</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71076</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72071</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72057</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7522,13 +7534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T205"/>
+  <dimension ref="A1:T207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A121" sqref="A121"/>
+      <selection pane="bottomRight" activeCell="K186" sqref="K186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9355,9 +9367,7 @@
         <v>131</v>
       </c>
       <c r="J49" s="3"/>
-      <c r="K49" s="3" t="s">
-        <v>657</v>
-      </c>
+      <c r="K49" s="3"/>
       <c r="S49" s="1" t="s">
         <v>656</v>
       </c>
@@ -10330,73 +10340,69 @@
         <v>686</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="8" t="s">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A80" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B81" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="8" t="s">
+      <c r="C81" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E81" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F81" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H80" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A81" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>772</v>
+      <c r="H81" s="11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A82" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>573</v>
+        <v>189</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>182</v>
@@ -10405,21 +10411,21 @@
         <v>248</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H82" s="6" t="b">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>196</v>
+        <v>772</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>573</v>
@@ -10428,39 +10434,39 @@
         <v>47</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H83" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>329</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>756</v>
+        <v>573</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>759</v>
+        <v>47</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>188</v>
@@ -10469,34 +10475,30 @@
         <v>248</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H84" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J84" s="3"/>
-      <c r="M84" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>758</v>
+        <v>339</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A85" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>188</v>
@@ -10505,31 +10507,34 @@
         <v>248</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H85" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3" t="s">
-        <v>762</v>
+        <v>199</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="M85" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>573</v>
+        <v>760</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>47</v>
+        <v>761</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>188</v>
@@ -10538,21 +10543,22 @@
         <v>248</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H86" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A87" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>573</v>
@@ -10570,21 +10576,21 @@
         <v>248</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H87" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>773</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A88" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>573</v>
@@ -10602,21 +10608,21 @@
         <v>248</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H88" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A89" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>573</v>
@@ -10634,21 +10640,21 @@
         <v>248</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H89" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>755</v>
+        <v>303</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>330</v>
+        <v>774</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A90" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>573</v>
@@ -10666,21 +10672,21 @@
         <v>248</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>712</v>
+        <v>257</v>
       </c>
       <c r="H90" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>775</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A91" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>573</v>
@@ -10698,30 +10704,30 @@
         <v>248</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>258</v>
+        <v>712</v>
       </c>
       <c r="H91" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>304</v>
+        <v>713</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>192</v>
+        <v>775</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A92" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>763</v>
+        <v>573</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>764</v>
+        <v>47</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>188</v>
@@ -10730,30 +10736,27 @@
         <v>248</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H92" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>584</v>
+        <v>304</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A93" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>182</v>
@@ -10765,36 +10768,33 @@
         <v>248</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H93" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>776</v>
+        <v>196</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>182</v>
+        <v>584</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A94" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>573</v>
+        <v>766</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>47</v>
+        <v>767</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>188</v>
@@ -10803,21 +10803,27 @@
         <v>248</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H94" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A95" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>573</v>
@@ -10835,30 +10841,30 @@
         <v>248</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H95" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A96" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>71</v>
+        <v>203</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>573</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>625</v>
+        <v>47</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>188</v>
@@ -10867,30 +10873,30 @@
         <v>248</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H96" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>203</v>
+        <v>778</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A97" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>769</v>
+        <v>204</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>770</v>
+        <v>625</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>188</v>
@@ -10899,42 +10905,30 @@
         <v>248</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H97" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="P97" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q97" s="3" t="s">
-        <v>161</v>
+        <v>308</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A98" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>643</v>
+        <v>769</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>188</v>
@@ -10943,33 +10937,42 @@
         <v>248</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>782</v>
+        <v>309</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A99" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>783</v>
+        <v>643</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>188</v>
@@ -10978,36 +10981,33 @@
         <v>248</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>754</v>
+        <v>310</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="N99" s="3" t="s">
-        <v>786</v>
+        <v>331</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A100" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>573</v>
+        <v>783</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>47</v>
+        <v>784</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>188</v>
@@ -11016,21 +11016,27 @@
         <v>248</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>711</v>
+        <v>266</v>
       </c>
       <c r="H100" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>740</v>
+        <v>714</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A101" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>573</v>
@@ -11048,21 +11054,21 @@
         <v>248</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>267</v>
+        <v>711</v>
       </c>
       <c r="H101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>311</v>
+        <v>739</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>332</v>
+        <v>740</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A102" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>573</v>
@@ -11080,21 +11086,21 @@
         <v>248</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H102" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>312</v>
+      <c r="I102" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>222</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A103" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>573</v>
@@ -11112,21 +11118,21 @@
         <v>248</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H103" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I103" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>313</v>
+      <c r="I103" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A104" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>573</v>
@@ -11144,21 +11150,21 @@
         <v>248</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H104" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A105" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>573</v>
@@ -11176,30 +11182,30 @@
         <v>248</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H105" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A106" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>769</v>
+        <v>573</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>770</v>
+        <v>47</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>188</v>
@@ -11208,43 +11214,30 @@
         <v>248</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H106" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O106" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="P106" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q106" s="3" t="s">
-        <v>182</v>
+        <v>315</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A107" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>71</v>
+        <v>214</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>625</v>
+        <v>770</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>188</v>
@@ -11253,30 +11246,43 @@
         <v>248</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H107" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>334</v>
+        <v>316</v>
+      </c>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A108" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>573</v>
+        <v>215</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>188</v>
@@ -11285,30 +11291,30 @@
         <v>248</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H108" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>705</v>
+        <v>317</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>706</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A109" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>788</v>
+        <v>573</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>789</v>
+        <v>47</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>188</v>
@@ -11317,27 +11323,27 @@
         <v>248</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H109" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="S109" s="1" t="s">
-        <v>790</v>
+        <v>705</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A110" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>824</v>
+        <v>788</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>161</v>
@@ -11349,33 +11355,30 @@
         <v>248</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H110" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>826</v>
+        <v>216</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>827</v>
+        <v>790</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A111" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>791</v>
+        <v>824</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>792</v>
+        <v>825</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>188</v>
@@ -11384,33 +11387,33 @@
         <v>248</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="N111" s="3" t="s">
-        <v>794</v>
+        <v>751</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A112" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>573</v>
+        <v>791</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>47</v>
+        <v>792</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>188</v>
@@ -11419,30 +11422,33 @@
         <v>248</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H112" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>318</v>
+        <v>707</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A113" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>820</v>
+        <v>573</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>823</v>
+        <v>47</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>188</v>
@@ -11451,42 +11457,30 @@
         <v>248</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H113" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="O113" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="P113" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q113" s="3" t="s">
-        <v>154</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A114" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>573</v>
+        <v>820</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>47</v>
+        <v>823</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>188</v>
@@ -11495,21 +11489,33 @@
         <v>248</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H114" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>320</v>
+        <v>335</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A115" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>573</v>
@@ -11527,30 +11533,30 @@
         <v>248</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H115" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>746</v>
+        <v>320</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>745</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A116" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>643</v>
+        <v>573</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>795</v>
+        <v>47</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>188</v>
@@ -11559,33 +11565,30 @@
         <v>248</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H116" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>321</v>
+        <v>746</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="S116" s="1" t="s">
-        <v>796</v>
+        <v>745</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A117" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>800</v>
+        <v>643</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>188</v>
@@ -11594,34 +11597,33 @@
         <v>248</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H117" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="J117" s="3"/>
-      <c r="M117" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="N117" s="3" t="s">
-        <v>599</v>
+        <v>321</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A118" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>573</v>
+        <v>800</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>47</v>
+        <v>801</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>188</v>
@@ -11630,30 +11632,34 @@
         <v>248</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>710</v>
+        <v>283</v>
       </c>
       <c r="H118" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>709</v>
+        <v>224</v>
+      </c>
+      <c r="J118" s="3"/>
+      <c r="M118" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A119" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>804</v>
+        <v>573</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>803</v>
+        <v>47</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>188</v>
@@ -11662,28 +11668,27 @@
         <v>248</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>299</v>
+        <v>710</v>
       </c>
       <c r="H119" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="J119" s="3"/>
-      <c r="S119" s="1" t="s">
-        <v>805</v>
+        <v>708</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A120" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>766</v>
+        <v>804</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>47</v>
+        <v>803</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>161</v>
@@ -11695,101 +11700,89 @@
         <v>248</v>
       </c>
       <c r="G120" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H120" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="S120" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A121" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H120" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" s="3" t="s">
+      <c r="H121" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="J121" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="S120" s="3" t="s">
+      <c r="S121" s="3" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="121" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="18" t="s">
+    <row r="122" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C121" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D121" s="19" t="s">
+      <c r="C122" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E122" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F121" s="20" t="s">
+      <c r="F122" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="G121" s="19"/>
-      <c r="H121" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A122" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H122" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O122" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="P122" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q122" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="G122" s="19"/>
+      <c r="H122" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A123" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>188</v>
@@ -11798,34 +11791,43 @@
         <v>248</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H123" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>834</v>
+        <v>322</v>
       </c>
       <c r="J123" s="3"/>
-      <c r="M123" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="N123" s="3" t="s">
-        <v>839</v>
+      <c r="K123" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q123" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A124" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>71</v>
+        <v>231</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>836</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>625</v>
+        <v>837</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>188</v>
@@ -11834,30 +11836,34 @@
         <v>248</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H124" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>235</v>
+        <v>834</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="M124" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A125" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>573</v>
+        <v>232</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>188</v>
@@ -11866,21 +11872,21 @@
         <v>248</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H125" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A126" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>573</v>
@@ -11898,21 +11904,21 @@
         <v>248</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H126" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A127" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>573</v>
@@ -11930,21 +11936,21 @@
         <v>248</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H127" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A128" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>573</v>
@@ -11962,21 +11968,21 @@
         <v>248</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H128" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A129" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>573</v>
@@ -11994,21 +12000,21 @@
         <v>248</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H129" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A130" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>573</v>
@@ -12026,27 +12032,30 @@
         <v>248</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H130" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>233</v>
+        <v>328</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A131" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>816</v>
+        <v>573</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>817</v>
+        <v>47</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>188</v>
@@ -12055,33 +12064,27 @@
         <v>248</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H131" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="M131" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="N131" s="3" t="s">
-        <v>819</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A132" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>573</v>
+        <v>816</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>47</v>
+        <v>817</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>188</v>
@@ -12090,18 +12093,24 @@
         <v>248</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H132" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A133" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>573</v>
@@ -12119,18 +12128,18 @@
         <v>248</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H133" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A134" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>573</v>
@@ -12148,27 +12157,27 @@
         <v>248</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H134" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A135" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>844</v>
+        <v>573</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>843</v>
+        <v>47</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>188</v>
@@ -12177,31 +12186,27 @@
         <v>248</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>728</v>
+        <v>297</v>
       </c>
       <c r="H135" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3" t="s">
-        <v>741</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A136" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>188</v>
@@ -12210,30 +12215,26 @@
         <v>248</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H136" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="M136" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="N136" s="3" t="s">
-        <v>852</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A137" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>182</v>
@@ -12245,36 +12246,33 @@
         <v>248</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H137" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A138" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>188</v>
@@ -12283,30 +12281,36 @@
         <v>248</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H138" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="R138" s="3" t="s">
-        <v>855</v>
+        <v>742</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A139" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>188</v>
@@ -12315,33 +12319,30 @@
         <v>248</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H139" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="N139" s="3" t="s">
-        <v>859</v>
+        <v>741</v>
+      </c>
+      <c r="R139" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A140" s="15" t="s">
-        <v>717</v>
+        <v>247</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>573</v>
+        <v>856</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>47</v>
+        <v>857</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>188</v>
@@ -12350,30 +12351,33 @@
         <v>248</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H140" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A141" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>860</v>
+        <v>573</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>861</v>
+        <v>47</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>188</v>
@@ -12382,30 +12386,30 @@
         <v>248</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H141" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="R141" s="3" t="s">
-        <v>862</v>
+        <v>747</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A142" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>828</v>
+        <v>860</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>829</v>
+        <v>861</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>188</v>
@@ -12414,33 +12418,30 @@
         <v>248</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H142" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="M142" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="N142" s="3" t="s">
-        <v>842</v>
+        <v>749</v>
+      </c>
+      <c r="R142" s="3" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A143" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>573</v>
+        <v>828</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>47</v>
+        <v>829</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>188</v>
@@ -12449,30 +12450,33 @@
         <v>248</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H143" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A144" s="15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>830</v>
+        <v>573</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>831</v>
+        <v>47</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>188</v>
@@ -12481,59 +12485,65 @@
         <v>248</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H144" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="L144" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="O144" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="P144" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q144" s="3" t="s">
-        <v>616</v>
+        <v>752</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A145" s="15" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>47</v>
+        <v>831</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F145" s="6" t="b">
-        <v>0</v>
+      <c r="F145" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>737</v>
       </c>
       <c r="H145" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K145" s="3" t="s">
-        <v>781</v>
+      <c r="I145" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="L145" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="P145" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q145" s="3" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A146" s="15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>47</v>
@@ -12551,21 +12561,21 @@
         <v>0</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A147" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>803</v>
+        <v>47</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>188</v>
@@ -12576,22 +12586,22 @@
       <c r="H147" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S147" s="1" t="s">
-        <v>812</v>
+      <c r="K147" s="3" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A148" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>188</v>
@@ -12602,22 +12612,19 @@
       <c r="H148" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="M148" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="N148" s="3" t="s">
-        <v>811</v>
+      <c r="S148" s="1" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A149" s="15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>182</v>
@@ -12640,16 +12647,16 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A150" s="15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>188</v>
@@ -12660,129 +12667,123 @@
       <c r="H150" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S150" s="1" t="s">
+      <c r="M150" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A151" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F151" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S151" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="151" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H151" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A152" s="3" t="s">
-        <v>342</v>
+      <c r="A152" s="15" t="s">
+        <v>864</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>48</v>
+        <v>844</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>47</v>
+        <v>843</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F152" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E153" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F152" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I152" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="J152" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A153" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H153" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I153" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="J153" s="12" t="s">
-        <v>472</v>
+      <c r="F153" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H153" s="11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>47</v>
+        <v>342</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>341</v>
+        <v>164</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="H154" s="6" t="b">
-        <v>0</v>
+        <v>396</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="J154" s="12" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A155" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>47</v>
@@ -12791,30 +12792,30 @@
         <v>47</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>341</v>
+        <v>164</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H155" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A156" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>47</v>
@@ -12832,21 +12833,18 @@
         <v>248</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H156" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="J156" s="12" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>47</v>
@@ -12864,21 +12862,21 @@
         <v>248</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H157" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>47</v>
@@ -12896,21 +12894,21 @@
         <v>248</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H158" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A159" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>47</v>
@@ -12928,18 +12926,21 @@
         <v>248</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H159" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I159" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="J159" s="12" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>47</v>
@@ -12957,22 +12958,21 @@
         <v>248</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H160" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
+      </c>
+      <c r="J160" s="12" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>47</v>
@@ -12990,22 +12990,18 @@
         <v>248</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H161" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>47</v>
@@ -13023,22 +13019,22 @@
         <v>248</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H162" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J162" s="12"/>
       <c r="K162" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>47</v>
@@ -13056,18 +13052,22 @@
         <v>248</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H163" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>450</v>
+        <v>480</v>
+      </c>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>47</v>
@@ -13085,18 +13085,22 @@
         <v>248</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H164" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>450</v>
+        <v>481</v>
+      </c>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>47</v>
@@ -13113,22 +13117,19 @@
       <c r="F165" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>68</v>
+      <c r="G165" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="H165" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="J165" s="12" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>47</v>
@@ -13146,21 +13147,18 @@
         <v>248</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H166" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="J166" s="12" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>47</v>
@@ -13177,22 +13175,22 @@
       <c r="F167" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G167" s="3" t="s">
-        <v>410</v>
+      <c r="G167" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H167" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>47</v>
@@ -13210,18 +13208,21 @@
         <v>248</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H168" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>451</v>
+        <v>483</v>
+      </c>
+      <c r="J168" s="12" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>47</v>
@@ -13239,21 +13240,21 @@
         <v>248</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H169" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>47</v>
@@ -13271,18 +13272,18 @@
         <v>248</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H170" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>47</v>
@@ -13300,21 +13301,21 @@
         <v>248</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H171" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>47</v>
@@ -13332,21 +13333,18 @@
         <v>248</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H172" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="J172" s="12" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>47</v>
@@ -13364,21 +13362,21 @@
         <v>248</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H173" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I173" s="12" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>47</v>
@@ -13396,18 +13394,21 @@
         <v>248</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H174" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>455</v>
+        <v>489</v>
+      </c>
+      <c r="J174" s="12" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>47</v>
@@ -13425,18 +13426,21 @@
         <v>248</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H175" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>456</v>
+        <v>491</v>
+      </c>
+      <c r="J175" s="12" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>47</v>
@@ -13454,21 +13458,18 @@
         <v>248</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H176" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I176" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="J176" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>47</v>
@@ -13486,21 +13487,18 @@
         <v>248</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H177" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="J177" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>47</v>
@@ -13518,18 +13516,21 @@
         <v>248</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H178" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I178" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="J178" s="12" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>47</v>
@@ -13547,21 +13548,21 @@
         <v>248</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H179" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>47</v>
@@ -13579,21 +13580,18 @@
         <v>248</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>57</v>
+        <v>421</v>
       </c>
       <c r="H180" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I180" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="J180" s="12" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>47</v>
@@ -13611,21 +13609,21 @@
         <v>248</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>273</v>
+        <v>422</v>
       </c>
       <c r="H181" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I181" s="12" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>47</v>
@@ -13643,21 +13641,21 @@
         <v>248</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>423</v>
+        <v>57</v>
       </c>
       <c r="H182" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>47</v>
@@ -13675,21 +13673,21 @@
         <v>248</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>424</v>
+        <v>273</v>
       </c>
       <c r="H183" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>47</v>
@@ -13707,21 +13705,21 @@
         <v>248</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H184" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>47</v>
@@ -13739,18 +13737,21 @@
         <v>248</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H185" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I185" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="J185" s="12" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>47</v>
@@ -13768,21 +13769,21 @@
         <v>248</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H186" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I186" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>47</v>
@@ -13800,18 +13801,18 @@
         <v>248</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H187" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I187" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>47</v>
@@ -13829,21 +13830,21 @@
         <v>248</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H188" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>464</v>
+        <v>502</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>47</v>
@@ -13861,18 +13862,18 @@
         <v>248</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H189" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I189" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>47</v>
@@ -13890,21 +13891,21 @@
         <v>248</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H190" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J190" s="12" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>47</v>
@@ -13922,21 +13923,18 @@
         <v>248</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H191" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I191" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="J191" s="12" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>47</v>
@@ -13954,21 +13952,21 @@
         <v>248</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H192" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I192" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J192" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>47</v>
@@ -13986,18 +13984,21 @@
         <v>248</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H193" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>466</v>
+        <v>505</v>
+      </c>
+      <c r="J193" s="12" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>47</v>
@@ -14015,18 +14016,21 @@
         <v>248</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H194" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>466</v>
+        <v>506</v>
+      </c>
+      <c r="J194" s="12" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A195" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>47</v>
@@ -14044,21 +14048,18 @@
         <v>248</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H195" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I195" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="J195" s="12" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A196" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>47</v>
@@ -14076,21 +14077,18 @@
         <v>248</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H196" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="J196" s="12" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A197" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>47</v>
@@ -14108,21 +14106,21 @@
         <v>248</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H197" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J197" s="12" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A198" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>47</v>
@@ -14140,21 +14138,21 @@
         <v>248</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H198" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A199" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>47</v>
@@ -14172,18 +14170,21 @@
         <v>248</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H199" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I199" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="J199" s="12" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A200" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>47</v>
@@ -14201,22 +14202,21 @@
         <v>248</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H200" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="J200" s="12"/>
-      <c r="K200" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
+      </c>
+      <c r="J200" s="12" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A201" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>47</v>
@@ -14234,22 +14234,18 @@
         <v>248</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H201" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="J201" s="12"/>
-      <c r="K201" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A202" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>47</v>
@@ -14267,21 +14263,22 @@
         <v>248</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H202" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I202" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="J202" s="12" t="s">
-        <v>470</v>
+        <v>514</v>
+      </c>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A203" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>47</v>
@@ -14299,21 +14296,22 @@
         <v>248</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H203" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="J203" s="12" t="s">
-        <v>518</v>
+        <v>515</v>
+      </c>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A204" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>47</v>
@@ -14331,18 +14329,21 @@
         <v>248</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H204" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I204" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="J204" s="12" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A205" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>47</v>
@@ -14360,17 +14361,78 @@
         <v>248</v>
       </c>
       <c r="G205" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H205" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I205" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="J205" s="12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A206" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H206" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I206" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A207" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G207" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="H205" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I205" s="12" t="s">
+      <c r="H207" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I207" s="12" t="s">
         <v>470</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F205" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T207" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73242455-4246-4664-9130-8352648EF172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6DC804-4506-493F-9CA4-AF559B43EAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11752" yWindow="1702" windowWidth="16073" windowHeight="13958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$217</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="982">
   <si>
     <t>id</t>
   </si>
@@ -5076,14 +5076,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>碎石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>7</t>
     </r>
@@ -5164,23 +5156,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>71028,71056</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5206,23 +5181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>荒废伐木场</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -5244,6 +5202,60 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>伐木场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1066</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100002</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10038,10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一间紧闭着的小屋，没有钥匙就无法进入。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71057</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -5256,12 +5268,40 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,10,1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伐木场</t>
+      <t>1001</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71030,71033,71059,71057</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungry_Old_Lady</t>
+  </si>
+  <si>
+    <t>送老妇人上路</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5277,109 +5317,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1066</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100002</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10038,10001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小屋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一间紧闭着的小屋，没有钥匙就无法进入。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>71057</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1001</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>71030,71033,71059,71057</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2100003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hungry_Old_Lady</t>
-  </si>
-  <si>
-    <t>送老妇人上路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1039</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5422,10 +5359,6 @@
   </si>
   <si>
     <t>你发现了一个被遗弃的柴堆。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看起来可以当做材料的石头。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5464,10 +5397,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5,5,5,5,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>？？？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5567,10 +5496,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10040,10041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5,5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5602,6 +5527,500 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>发光的物件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在修好的窑炉后面看到一个发光的物件……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1055</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采石场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100004</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1063</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶臭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么臭臭的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1060</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smell_Dead</t>
+  </si>
+  <si>
+    <t>恶臭来源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你循着臭味，找到了它的源头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fucking_Hell</t>
+  </si>
+  <si>
+    <t>河川</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100005,2100001</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹿斑比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋内部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你进入了小屋。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Into_The_House</t>
+  </si>
+  <si>
+    <t>找到加缪感兴趣的东西。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1075</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The_Name_Of_God</t>
+  </si>
+  <si>
+    <t>加缪的尸体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加缪再一次被吊了起来，这次是正着的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被倒吊起来的神秘人需要你的帮助。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你跟随母狼，来到了母狼的巢穴……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到一个采石场，有很多待开采的石料。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到了一头鹿的尸体，看起来刚死不久，还没有腐败。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你发现了一条河，旁边竟然还有人留下了钓竿！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在这里获得木头。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿的老妇人等待着你的食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老妇人将你带回了她居住的地方。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑远的神秘人连包都顾不上拿……看看里面有什么好东西。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞迪亚被大树拦住了去路，你可以给她一把斧头。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被你修好的窑炉。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1058</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72027,72029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72027,72031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72009,72011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72018,72026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72034,72043</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72043</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72060</t>
+  </si>
+  <si>
+    <t>72061</t>
+  </si>
+  <si>
+    <t>72062</t>
+  </si>
+  <si>
+    <t>72063</t>
+  </si>
+  <si>
+    <t>72064</t>
+  </si>
+  <si>
+    <t>72065</t>
+  </si>
+  <si>
+    <t>72066</t>
+  </si>
+  <si>
+    <t>72067</t>
+  </si>
+  <si>
+    <t>72068</t>
+  </si>
+  <si>
+    <t>72069</t>
+  </si>
+  <si>
+    <t>72070</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,11</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,17</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,12</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,8</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>5</t>
     </r>
@@ -5614,20 +6033,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,5,1,1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发光的物件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在修好的窑炉后面看到一个发光的物件……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11004</t>
+      <t>,14</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5643,12 +6050,269 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1055</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采石场</t>
+      <t>2020,72057</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72017,72055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2055</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2057</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2055,72056,72058</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2056,72058</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2035</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2059,72060</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72034,72059,72060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2035,72061</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2061</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2060</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2030</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72033,72062,72064</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2009,72019</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72018,72026,72063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72003,72010,72018,72063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0004,10002</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到一个工地，放着一些建筑材料。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾回收站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许可以翻找出一些有用的东西。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5664,8 +6328,119 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>100004</t>
-    </r>
+      <t>200001</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废铁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到一些尖锐的废铁。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0004</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一具尸体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到一个背着背包的尸体。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0031</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废墟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坍塌的废墟拦住了你的去路。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0023</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72017,72008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72007,72012,72002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72021,72014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72014,72022,72006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方不远处有一家废弃的超市。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接超市</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5681,16 +6456,36 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1063</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶臭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么臭臭的？</t>
+      <t>2063</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robber</t>
+  </si>
+  <si>
+    <t>超市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来强盗把这里当成了据点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0040,10041,10042</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5706,26 +6501,383 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1060</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smell_Dead</t>
-  </si>
-  <si>
-    <t>恶臭来源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你循着臭味，找到了它的源头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fucking_Hell</t>
-  </si>
-  <si>
-    <t>河川</t>
+      <t>0027</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴森别墅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的眼前是一栋别墅，但看起来十分阴森。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead_Body_In_House</t>
+  </si>
+  <si>
+    <t>普通别墅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的眼前是一栋别墅，看起来很普通。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10014,10044,10054</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方出现了一个人影……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meet_Drust</t>
+  </si>
+  <si>
+    <t>答应找人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72037,72039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁斯特的物资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁斯特给了你一些物资。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10032,10033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你来到了德鲁斯特夫人所居住的桥洞。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥洞之下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drusts_House</t>
+  </si>
+  <si>
+    <t>德鲁斯特的遗产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁斯特夫人剩下的东西。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁斯特的赠予</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德鲁斯特夫人送给你很多东西。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009,10031,10042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drusts_Daughter</t>
+  </si>
+  <si>
+    <t>断桥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过河的桥断了，你无法继续前进。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0011</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到一个小巧精致的零件盒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11008,10009,10012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚重的铁门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0030</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0024</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入建筑的路被铁门挡住了。门上的锁链似乎可以剪开。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你推开了铁门，现在是进入建筑的时候了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72062,70064</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gods_Name</t>
+  </si>
+  <si>
+    <t>文件盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个看起来十分重要的文件盒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火葬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自火焰的超度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2070</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0030</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monks_Dead_Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高僧之遗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧侣留下的遗物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11007,10030,10040,10041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,4,4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All_In_Fire</t>
+  </si>
+  <si>
+    <t>11005,10009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的眼前是一栋别墅，看起来十分华丽。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华丽别墅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下储藏室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华的厨房，可能有些剩余的食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华的卧室，充满电子设备。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竟然有大量的油储存在这里，但你需要一些东西装走。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10041,10042,10019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3,20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10009,10008</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5741,31 +6893,140 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>100005,2100001</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鹿斑比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小屋内部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你进入了小屋。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Into_The_House</t>
-  </si>
-  <si>
-    <t>找到加缪感兴趣的东西。</t>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200002</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃的咖啡店。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10044,10014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冰机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我超，冰！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200003</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71076</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72071</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>72057</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃铁丝网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁丝网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个看起来很有用的东西。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5781,9 +7042,135 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1005</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>0010</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗失的包裹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来像是谁忘了拿走。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些没用了的铁丝网。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个空瓶子。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被一到铁丝网拦住了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10040,10041,10019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0004,10008</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃的熔炉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像还剩下一些能用的铁。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>废弃的7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看能不能找到一些食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10043,10044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方就是瑞迪亚所说的加油站了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invite_To_Leave</t>
+  </si>
+  <si>
+    <t>Gas_Station</t>
   </si>
   <si>
     <r>
@@ -5798,71 +7185,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1075</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The_Name_Of_God</t>
-  </si>
-  <si>
-    <t>加缪的尸体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加缪再一次被吊了起来，这次是正着的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被倒吊起来的神秘人需要你的帮助。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你跟随母狼，来到了母狼的巢穴……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你找到一个采石场，有很多待开采的石料。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你找到了一头鹿的尸体，看起来刚死不久，还没有腐败。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你发现了一条河，旁边竟然还有人留下了钓竿！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在这里获得木头。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>饥饿的老妇人等待着你的食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老妇人将你带回了她居住的地方。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑远的神秘人连包都顾不上拿……看看里面有什么好东西。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞迪亚被大树拦住了去路，你可以给她一把斧头。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被你修好的窑炉。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10043,10055,10043</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1,4</t>
+      <t>3026</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿出点火线圈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你将点火线圈交给莉莉安。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1004</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5878,165 +7227,196 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1058</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72044</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72027,72029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72038</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72027,72031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72009,72011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72018,72026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72034,72043</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72043</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72060</t>
-  </si>
-  <si>
-    <t>72061</t>
-  </si>
-  <si>
-    <t>72062</t>
-  </si>
-  <si>
-    <t>72063</t>
-  </si>
-  <si>
-    <t>72064</t>
-  </si>
-  <si>
-    <t>72065</t>
-  </si>
-  <si>
-    <t>72066</t>
-  </si>
-  <si>
-    <t>72067</t>
-  </si>
-  <si>
-    <t>72068</t>
-  </si>
-  <si>
-    <t>72069</t>
-  </si>
-  <si>
-    <t>72070</t>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8,9</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,11</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,9</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,7</t>
-    </r>
+      <t>3055</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿莱芙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alive</t>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3027</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3056</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3057</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>73058</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73059</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>73060</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>6,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>73027,73025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,73056</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73027,73056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talk_To_Radia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与莉莉安交谈。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莉莉安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与瑞迪亚交谈。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73026,73058</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3058</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交修车的剩余材料。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6052,7 +7432,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,14</t>
+      <t>1008,11009</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6069,8 +7449,44 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2,17</t>
-    </r>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73061</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73062</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>73026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,73057</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talk_To_LiLian</t>
+  </si>
+  <si>
+    <t>噩梦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把吊坠交给莉莉安。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6086,1837 +7502,373 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2,20</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>0028</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是时候离开了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3060</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73056,73058</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good_End</t>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3061</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>End</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坏结局。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad_End</t>
+  </si>
+  <si>
+    <t>可用的材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些可用的材料。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10002,10007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿化带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>野生植物也是能吃的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10032,10033,10038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佝偻的人影。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73064</t>
+  </si>
+  <si>
+    <t>佝偻之影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他在等待他的“宝贝”。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GULU</t>
+  </si>
+  <si>
+    <t>Precious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>His precious。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃的罗森</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是预制菜！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10040,10041,10042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跷跷板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一根木板的两头放着两个包裹。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73043</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two_On_One</t>
+  </si>
+  <si>
+    <t>神秘的包裹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面有什么呢？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核泄漏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖革计数器狂响，需要用水泥覆盖掉才能前进。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0013</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油泵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个可用的燃油泵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1009</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政厅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市中心的市政厅。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Natasha</t>
+  </si>
+  <si>
+    <t>信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一封信。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1006</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,12</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1,8</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,14</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2020,72057</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72017,72055</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2055</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2057</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2055,72056,72058</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2056,72058</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2035</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2059,72060</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72034,72059,72060</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2035,72061</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2061</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2060</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2030</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72033,72062,72064</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2009,72019</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72018,72026,72063</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72003,72010,72018,72063</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0004,10002</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你找到一个工地，放着一些建筑材料。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾回收站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许可以翻找出一些有用的东西。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200001</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>废铁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你找到一些尖锐的废铁。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0004</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一具尸体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你找到一个背着背包的尸体。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0031</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>废墟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坍塌的废墟拦住了你的去路。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0023</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72017,72008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72007,72012,72002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72021,72014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72014,72022,72006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前方不远处有一家废弃的超市。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接超市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2063</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robber</t>
-  </si>
-  <si>
-    <t>超市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看起来强盗把这里当成了据点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0040,10041,10042</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,3,3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0027</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴森别墅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的眼前是一栋别墅，但看起来十分阴森。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dead_Body_In_House</t>
-  </si>
-  <si>
-    <t>普通别墅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的眼前是一栋别墅，看起来很普通。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10014,10044,10054</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前方出现了一个人影……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meet_Drust</t>
-  </si>
-  <si>
-    <t>答应找人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72042</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72037,72039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>德鲁斯特的物资</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>德鲁斯特给了你一些物资。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10032,10033</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你来到了德鲁斯特夫人所居住的桥洞。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥洞之下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drusts_House</t>
-  </si>
-  <si>
-    <t>德鲁斯特的遗产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>德鲁斯特夫人剩下的东西。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>德鲁斯特的赠予</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>德鲁斯特夫人送给你很多东西。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10009,10031,10042</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5,5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drusts_Daughter</t>
-  </si>
-  <si>
-    <t>断桥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过河的桥断了，你无法继续前进。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0011</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件盒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你找到一个小巧精致的零件盒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11008,10009,10012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,5,5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚重的铁门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0030</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0024</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入建筑的路被铁门挡住了。门上的锁链似乎可以剪开。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入建筑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你推开了铁门，现在是进入建筑的时候了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72062,70064</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gods_Name</t>
-  </si>
-  <si>
-    <t>文件盒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个看起来十分重要的文件盒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火葬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自火焰的超度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2070</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0030</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monks_Dead_Body</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高僧之遗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>僧侣留下的遗物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11007,10030,10040,10041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2,4,4</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>All_In_Fire</t>
-  </si>
-  <si>
-    <t>11005,10009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的眼前是一栋别墅，看起来十分华丽。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>华丽别墅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下储藏室</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华的厨房，可能有些剩余的食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华的卧室，充满电子设备。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竟然有大量的油储存在这里，但你需要一些东西装走。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10041,10042,10019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,3,20</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10009,10008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200002</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖啡店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃的咖啡店。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10044,10014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,20</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>制冰机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我超，冰！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200003</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>71076</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72071</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72057</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃铁丝网</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10015</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁丝网</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3000</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个看起来很有用的东西。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0010</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗失的包裹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看起来像是谁忘了拿走。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些没用了的铁丝网。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>几个空瓶子。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你被一到铁丝网拦住了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10040,10041,10019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,2,5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0004,10008</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,4</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃的熔炉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好像还剩下一些能用的铁。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>废弃的7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看能不能找到一些食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10043,10044</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加油站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前方就是瑞迪亚所说的加油站了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invite_To_Leave</t>
-  </si>
-  <si>
-    <t>Gas_Station</t>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3026</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿出点火线圈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你将点火线圈交给莉莉安。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1004</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3055</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿莱芙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alive</t>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3027</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73055</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3056</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3057</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>73058</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>73059</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>73060</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>6,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>73027,73025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,73056</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73027,73056</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Talk_To_Radia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与莉莉安交谈。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莉莉安</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与瑞迪亚交谈。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73026,73058</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3058</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交修车的剩余材料。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1008,11009</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73061</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73062</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>73026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,73057</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Talk_To_LiLian</t>
-  </si>
-  <si>
-    <t>噩梦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把吊坠交给莉莉安。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0028</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是时候离开了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3060</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73056,73058</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good_End</t>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3061</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Bad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>End</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坏结局。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bad_End</t>
-  </si>
-  <si>
-    <t>可用的材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些可用的材料。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10002,10007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿化带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>野生植物也是能吃的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10032,10033,10038</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,6,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佝偻的人影。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73063</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73064</t>
-  </si>
-  <si>
-    <t>佝偻之影</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>他在等待他的“宝贝”。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73034</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GULU</t>
-  </si>
-  <si>
-    <t>Precious</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>His precious。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃的罗森</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>都是预制菜！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10040,10041,10042</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跷跷板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一根木板的两头放着两个包裹。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73043</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>73042</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two_On_One</t>
-  </si>
-  <si>
-    <t>神秘的包裹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>里面有什么呢？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>核泄漏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盖革计数器狂响，需要用水泥覆盖掉才能前进。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0013</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃油泵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个可用的燃油泵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1009</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市政厅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市中心的市政厅。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_Natasha</t>
-  </si>
-  <si>
-    <t>信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一封信。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1006</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌木丛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到了一些石头和草。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,10,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10043,10043,10055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8340,10 +8292,10 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D218" sqref="D218"/>
+      <selection pane="bottomRight" activeCell="M214" sqref="M214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8585,7 +8537,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>153</v>
@@ -8721,7 +8673,7 @@
         <v>569</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>181</v>
@@ -8745,10 +8697,10 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>606</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
@@ -8827,7 +8779,7 @@
         <v>570</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>173</v>
@@ -8897,10 +8849,10 @@
         <v>576</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -8923,7 +8875,7 @@
         <v>577</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>262</v>
+        <v>971</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
@@ -8931,10 +8883,10 @@
         <v>71011</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>181</v>
@@ -8959,10 +8911,10 @@
       </c>
       <c r="K15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>171</v>
+        <v>783</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>579</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
@@ -9003,10 +8955,10 @@
         <v>71013</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>160</v>
@@ -9029,7 +8981,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="S17" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
@@ -9070,10 +9022,10 @@
         <v>71015</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>181</v>
@@ -9098,10 +9050,10 @@
       </c>
       <c r="K19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>598</v>
+        <v>972</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
@@ -9142,10 +9094,10 @@
         <v>71017</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>181</v>
@@ -9170,10 +9122,10 @@
       </c>
       <c r="K21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>674</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.4">
@@ -9202,10 +9154,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -9214,10 +9166,10 @@
         <v>71019</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>163</v>
@@ -9248,7 +9200,7 @@
         <v>577</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>594</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.4">
@@ -9346,7 +9298,7 @@
         <v>555</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -9358,7 +9310,7 @@
         <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>153</v>
@@ -9421,10 +9373,10 @@
         <v>71025</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>181</v>
@@ -9447,10 +9399,10 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>637</v>
+        <v>973</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
@@ -9491,10 +9443,10 @@
         <v>71027</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>163</v>
@@ -9517,13 +9469,13 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>601</v>
+        <v>974</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>163</v>
@@ -9537,7 +9489,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>163</v>
@@ -9645,10 +9597,10 @@
         <v>71031</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>163</v>
@@ -9670,19 +9622,19 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>157</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.4">
@@ -9711,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>559</v>
@@ -9759,7 +9711,7 @@
         <v>169</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>163</v>
@@ -9792,7 +9744,7 @@
         <v>171</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>160</v>
+        <v>849</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>173</v>
@@ -9806,7 +9758,7 @@
         <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>153</v>
@@ -9902,7 +9854,7 @@
         <v>71038</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>573</v>
@@ -9928,7 +9880,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="S42" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.4">
@@ -9936,10 +9888,10 @@
         <v>71039</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>160</v>
@@ -9951,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H43" s="6" t="b">
         <v>0</v>
@@ -9962,7 +9914,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="S43" s="1" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.4">
@@ -9970,10 +9922,10 @@
         <v>71040</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>160</v>
@@ -9996,7 +9948,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="S44" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.4">
@@ -10037,10 +9989,10 @@
         <v>71042</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>160</v>
@@ -10074,10 +10026,10 @@
         <v>71043</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>160</v>
@@ -10109,10 +10061,10 @@
         <v>71044</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>181</v>
@@ -10135,10 +10087,10 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>656</v>
+        <v>975</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
@@ -10146,10 +10098,10 @@
         <v>71045</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>160</v>
@@ -10172,7 +10124,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="S49" s="1" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
@@ -10180,10 +10132,10 @@
         <v>152</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>160</v>
@@ -10217,7 +10169,7 @@
         <v>574</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>163</v>
@@ -10282,7 +10234,7 @@
         <v>172</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>173</v>
@@ -10298,7 +10250,7 @@
       </c>
       <c r="K53" s="3"/>
       <c r="R53" s="3" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
@@ -10306,10 +10258,10 @@
         <v>176</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>163</v>
@@ -10344,7 +10296,7 @@
         <v>178</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>47</v>
@@ -10371,10 +10323,10 @@
         <v>180</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>181</v>
@@ -10389,7 +10341,7 @@
         <v>159</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>153</v>
@@ -10403,7 +10355,7 @@
         <v>537</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>160</v>
@@ -10426,7 +10378,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="S57" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
@@ -10434,13 +10386,13 @@
         <v>515</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>568</v>
+        <v>967</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>47</v>
+        <v>968</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>153</v>
@@ -10458,20 +10410,24 @@
         <v>550</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
+        <v>650</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
         <v>516</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>173</v>
@@ -10494,7 +10450,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="R59" s="3" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
@@ -10502,10 +10458,10 @@
         <v>517</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>160</v>
@@ -10528,7 +10484,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="S60" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
@@ -10536,10 +10492,10 @@
         <v>518</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>160</v>
@@ -10562,7 +10518,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="S61" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
@@ -10570,10 +10526,10 @@
         <v>519</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>181</v>
@@ -10594,10 +10550,10 @@
         <v>557</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>695</v>
+        <v>977</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>696</v>
+        <v>976</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
@@ -10605,10 +10561,10 @@
         <v>520</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>181</v>
@@ -10629,10 +10585,10 @@
         <v>558</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>160</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
@@ -10640,10 +10596,10 @@
         <v>521</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>160</v>
@@ -10666,7 +10622,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="S64" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.4">
@@ -10732,7 +10688,7 @@
         <v>565</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -10742,10 +10698,10 @@
         <v>524</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>173</v>
@@ -10768,7 +10724,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="R67" s="3" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.4">
@@ -10776,7 +10732,7 @@
         <v>525</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>47</v>
@@ -10794,7 +10750,7 @@
         <v>159</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -10804,7 +10760,7 @@
         <v>526</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>47</v>
@@ -10822,10 +10778,10 @@
         <v>159</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>588</v>
+        <v>978</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.4">
@@ -10833,10 +10789,10 @@
         <v>527</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>173</v>
@@ -10853,7 +10809,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="R70" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
@@ -10861,7 +10817,7 @@
         <v>528</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>47</v>
@@ -10879,7 +10835,7 @@
         <v>159</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -10889,10 +10845,10 @@
         <v>529</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>181</v>
@@ -10907,7 +10863,7 @@
         <v>159</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>153</v>
@@ -10918,10 +10874,10 @@
         <v>530</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>163</v>
@@ -10936,15 +10892,15 @@
         <v>159</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>163</v>
@@ -10978,7 +10934,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="S74" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
@@ -10986,10 +10942,10 @@
         <v>532</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>163</v>
@@ -11004,18 +10960,18 @@
         <v>159</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.4">
@@ -11023,10 +10979,10 @@
         <v>533</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>181</v>
@@ -11041,10 +10997,10 @@
         <v>159</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>647</v>
+        <v>942</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>648</v>
+        <v>979</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.4">
@@ -11052,10 +11008,10 @@
         <v>534</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>134</v>
@@ -11070,7 +11026,7 @@
         <v>159</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -11080,10 +11036,10 @@
         <v>535</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>163</v>
@@ -11098,21 +11054,21 @@
         <v>159</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.4">
@@ -11120,7 +11076,7 @@
         <v>536</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>47</v>
@@ -11140,18 +11096,18 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="S79" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A80" s="14" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>134</v>
@@ -11166,7 +11122,7 @@
         <v>159</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -11202,7 +11158,7 @@
         <v>70</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>153</v>
@@ -11223,7 +11179,7 @@
         <v>190</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.4">
@@ -11295,10 +11251,10 @@
         <v>191</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>181</v>
@@ -11320,10 +11276,10 @@
       </c>
       <c r="J85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>753</v>
+        <v>980</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.4">
@@ -11331,10 +11287,10 @@
         <v>192</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>173</v>
@@ -11356,7 +11312,7 @@
       </c>
       <c r="Q86" s="3"/>
       <c r="R86" s="3" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.4">
@@ -11420,7 +11376,7 @@
         <v>301</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.4">
@@ -11452,7 +11408,7 @@
         <v>302</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.4">
@@ -11481,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>329</v>
@@ -11507,16 +11463,16 @@
         <v>247</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="H91" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.4">
@@ -11556,10 +11512,10 @@
         <v>199</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>181</v>
@@ -11580,10 +11536,10 @@
         <v>195</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>579</v>
+        <v>849</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.4">
@@ -11591,10 +11547,10 @@
         <v>200</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>181</v>
@@ -11615,13 +11571,13 @@
         <v>304</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.4">
@@ -11653,7 +11609,7 @@
         <v>305</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.4">
@@ -11685,7 +11641,7 @@
         <v>306</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.4">
@@ -11696,7 +11652,7 @@
         <v>70</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>153</v>
@@ -11725,10 +11681,10 @@
         <v>204</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>163</v>
@@ -11749,13 +11705,13 @@
         <v>308</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>297</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>153</v>
@@ -11769,10 +11725,10 @@
         <v>205</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>160</v>
@@ -11796,7 +11752,7 @@
         <v>330</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.4">
@@ -11804,10 +11760,10 @@
         <v>206</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>181</v>
@@ -11825,16 +11781,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>781</v>
+        <v>981</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.4">
@@ -11857,16 +11813,16 @@
         <v>247</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="H101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.4">
@@ -12034,10 +11990,10 @@
         <v>213</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>163</v>
@@ -12059,13 +12015,13 @@
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>297</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>153</v>
@@ -12082,7 +12038,7 @@
         <v>70</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>153</v>
@@ -12132,10 +12088,10 @@
         <v>0</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.4">
@@ -12143,10 +12099,10 @@
         <v>216</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>160</v>
@@ -12167,7 +12123,7 @@
         <v>215</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.4">
@@ -12175,10 +12131,10 @@
         <v>217</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>160</v>
@@ -12196,13 +12152,13 @@
         <v>0</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.4">
@@ -12210,10 +12166,10 @@
         <v>218</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>181</v>
@@ -12231,13 +12187,13 @@
         <v>0</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.4">
@@ -12277,10 +12233,10 @@
         <v>220</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>163</v>
@@ -12304,10 +12260,10 @@
         <v>334</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>153</v>
@@ -12374,10 +12330,10 @@
         <v>0</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.4">
@@ -12385,10 +12341,10 @@
         <v>223</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>160</v>
@@ -12409,10 +12365,10 @@
         <v>320</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.4">
@@ -12420,10 +12376,10 @@
         <v>224</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>181</v>
@@ -12445,10 +12401,10 @@
       </c>
       <c r="J118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>594</v>
+        <v>740</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.4">
@@ -12471,16 +12427,16 @@
         <v>247</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="H119" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.4">
@@ -12488,10 +12444,10 @@
         <v>226</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>160</v>
@@ -12513,7 +12469,7 @@
       </c>
       <c r="J120" s="3"/>
       <c r="S120" s="1" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.4">
@@ -12521,7 +12477,7 @@
         <v>227</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>47</v>
@@ -12542,13 +12498,13 @@
         <v>0</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
     </row>
     <row r="122" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.4">
@@ -12579,10 +12535,10 @@
         <v>229</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>163</v>
@@ -12604,13 +12560,13 @@
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>297</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>160</v>
@@ -12624,10 +12580,10 @@
         <v>230</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>181</v>
@@ -12645,14 +12601,14 @@
         <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="J124" s="3"/>
       <c r="M124" s="3" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.4">
@@ -12663,7 +12619,7 @@
         <v>70</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>153</v>
@@ -12881,10 +12837,10 @@
         <v>238</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>181</v>
@@ -12905,10 +12861,10 @@
         <v>233</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.4">
@@ -13003,10 +12959,10 @@
         <v>242</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>160</v>
@@ -13018,13 +12974,13 @@
         <v>247</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="H136" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -13034,10 +12990,10 @@
         <v>243</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>181</v>
@@ -13049,19 +13005,19 @@
         <v>247</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="H137" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.4">
@@ -13069,10 +13025,10 @@
         <v>244</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>181</v>
@@ -13084,22 +13040,22 @@
         <v>247</v>
       </c>
       <c r="G138" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H138" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="J138" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H138" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>738</v>
-      </c>
       <c r="M138" s="3" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.4">
@@ -13107,10 +13063,10 @@
         <v>245</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>173</v>
@@ -13122,16 +13078,16 @@
         <v>247</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="H139" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="R139" s="3" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.4">
@@ -13139,10 +13095,10 @@
         <v>246</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>181</v>
@@ -13154,24 +13110,24 @@
         <v>247</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="H140" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A141" s="15" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>568</v>
@@ -13189,27 +13145,27 @@
         <v>247</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="H141" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A142" s="15" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>173</v>
@@ -13221,27 +13177,27 @@
         <v>247</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="H142" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="R142" s="3" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A143" s="15" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>181</v>
@@ -13253,24 +13209,24 @@
         <v>247</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="H143" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A144" s="15" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>568</v>
@@ -13288,27 +13244,27 @@
         <v>247</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="H144" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A145" s="15" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>163</v>
@@ -13320,33 +13276,33 @@
         <v>247</v>
       </c>
       <c r="G145" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="H145" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="H145" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>745</v>
-      </c>
       <c r="L145" s="17" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="O145" s="3" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="P145" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A146" s="15" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>47</v>
@@ -13364,15 +13320,15 @@
         <v>0</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A147" s="15" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>47</v>
@@ -13390,18 +13346,18 @@
         <v>0</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A148" s="15" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>160</v>
@@ -13416,18 +13372,18 @@
         <v>0</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A149" s="15" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>181</v>
@@ -13442,21 +13398,21 @@
         <v>0</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A150" s="15" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>181</v>
@@ -13471,21 +13427,21 @@
         <v>0</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A151" s="15" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>160</v>
@@ -13500,18 +13456,18 @@
         <v>0</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A152" s="15" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>134</v>
@@ -13526,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
     </row>
     <row r="153" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -13560,7 +13516,7 @@
         <v>70</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>153</v>
@@ -13621,10 +13577,10 @@
         <v>343</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>181</v>
@@ -13645,10 +13601,10 @@
         <v>447</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.4">
@@ -13752,10 +13708,10 @@
         <v>347</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>181</v>
@@ -13778,11 +13734,11 @@
       <c r="J160" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="M160" s="1" t="s">
-        <v>865</v>
+      <c r="M160" s="3" t="s">
+        <v>966</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.4">
@@ -13790,10 +13746,10 @@
         <v>348</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>181</v>
@@ -13814,10 +13770,10 @@
         <v>448</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.4">
@@ -13825,10 +13781,10 @@
         <v>349</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>163</v>
@@ -13856,7 +13812,7 @@
         <v>339</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="P162" s="1" t="s">
         <v>153</v>
@@ -13867,10 +13823,10 @@
         <v>350</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>163</v>
@@ -13895,10 +13851,10 @@
         <v>476</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="O163" s="3" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="P163" s="3" t="s">
         <v>153</v>
@@ -13909,10 +13865,10 @@
         <v>351</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>163</v>
@@ -13937,10 +13893,10 @@
         <v>477</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="O164" s="3" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="P164" s="3" t="s">
         <v>153</v>
@@ -13951,10 +13907,10 @@
         <v>352</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>181</v>
@@ -13975,10 +13931,10 @@
         <v>449</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.4">
@@ -13986,10 +13942,10 @@
         <v>353</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>181</v>
@@ -14011,7 +13967,7 @@
       </c>
       <c r="L166" s="3"/>
       <c r="M166" s="3" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="N166" s="3" t="s">
         <v>153</v>
@@ -14022,10 +13978,10 @@
         <v>354</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>160</v>
@@ -14049,7 +14005,7 @@
         <v>478</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.4">
@@ -14060,7 +14016,7 @@
         <v>70</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>153</v>
@@ -14121,10 +14077,10 @@
         <v>357</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>181</v>
@@ -14145,10 +14101,10 @@
         <v>450</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.4">
@@ -14188,10 +14144,10 @@
         <v>359</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>181</v>
@@ -14212,10 +14168,10 @@
         <v>452</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.4">
@@ -14319,10 +14275,10 @@
         <v>363</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>181</v>
@@ -14343,10 +14299,10 @@
         <v>454</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.4">
@@ -14354,10 +14310,10 @@
         <v>364</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>181</v>
@@ -14378,10 +14334,10 @@
         <v>455</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.4">
@@ -14389,10 +14345,10 @@
         <v>365</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>160</v>
@@ -14413,10 +14369,10 @@
         <v>488</v>
       </c>
       <c r="J178" s="22" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="S178" s="1" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.4">
@@ -14424,10 +14380,10 @@
         <v>366</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>163</v>
@@ -14445,23 +14401,23 @@
         <v>0</v>
       </c>
       <c r="I179" s="22" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="J179" s="12"/>
       <c r="K179" s="3" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="O179" s="3" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="P179" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.4">
@@ -14469,10 +14425,10 @@
         <v>367</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>160</v>
@@ -14490,13 +14446,13 @@
         <v>0</v>
       </c>
       <c r="I180" s="22" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.4">
@@ -14568,10 +14524,10 @@
         <v>370</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>181</v>
@@ -14595,10 +14551,10 @@
         <v>456</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.4">
@@ -14670,10 +14626,10 @@
         <v>373</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>160</v>
@@ -14695,7 +14651,7 @@
       </c>
       <c r="J186" s="12"/>
       <c r="S186" s="1" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.4">
@@ -14703,10 +14659,10 @@
         <v>374</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>181</v>
@@ -14727,7 +14683,7 @@
         <v>458</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="N187" s="1" t="s">
         <v>153</v>
@@ -14741,7 +14697,7 @@
         <v>70</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>153</v>
@@ -14831,10 +14787,10 @@
         <v>378</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>181</v>
@@ -14855,10 +14811,10 @@
         <v>461</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.4">
@@ -14930,10 +14886,10 @@
         <v>381</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>160</v>
@@ -14957,7 +14913,7 @@
         <v>502</v>
       </c>
       <c r="S194" s="1" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.4">
@@ -14965,10 +14921,10 @@
         <v>382</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>181</v>
@@ -14989,7 +14945,7 @@
         <v>462</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="N195" s="1" t="s">
         <v>153</v>
@@ -15000,10 +14956,10 @@
         <v>383</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>181</v>
@@ -15024,7 +14980,7 @@
         <v>462</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="N196" s="1" t="s">
         <v>153</v>
@@ -15163,10 +15119,10 @@
         <v>388</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>181</v>
@@ -15187,10 +15143,10 @@
         <v>463</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.4">
@@ -15231,10 +15187,10 @@
         <v>390</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>163</v>
@@ -15259,10 +15215,10 @@
         <v>465</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="P203" s="3" t="s">
         <v>181</v>
@@ -15279,7 +15235,7 @@
         <v>70</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>153</v>
@@ -15308,10 +15264,10 @@
         <v>392</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>160</v>
@@ -15335,7 +15291,7 @@
         <v>513</v>
       </c>
       <c r="S205" s="1" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.4">
@@ -15343,10 +15299,10 @@
         <v>393</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>181</v>
@@ -15367,7 +15323,7 @@
         <v>466</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
       <c r="N206" s="3" t="s">
         <v>153</v>
@@ -15378,10 +15334,10 @@
         <v>394</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>181</v>
@@ -15402,7 +15358,7 @@
         <v>466</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="N207" s="3" t="s">
         <v>153</v>
@@ -15410,10 +15366,10 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A208" s="14" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>47</v>
@@ -15432,18 +15388,18 @@
         <v>0</v>
       </c>
       <c r="S208" s="1" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A209" s="14" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>574</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>160</v>
@@ -15455,27 +15411,27 @@
         <v>247</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="H209" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="S209" s="3" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A210" s="14" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>163</v>
@@ -15487,19 +15443,19 @@
         <v>247</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="H210" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="P210" s="3" t="s">
         <v>153</v>
@@ -15507,13 +15463,13 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A211" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>917</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>163</v>
@@ -15525,25 +15481,25 @@
         <v>247</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="H211" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="P211" s="3" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="Q211" s="3" t="s">
         <v>160</v>
@@ -15551,7 +15507,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A212" s="14" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>568</v>
@@ -15573,18 +15529,18 @@
         <v>0</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A213" s="14" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>160</v>
@@ -15596,27 +15552,27 @@
         <v>247</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="H213" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="S213" s="1" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A214" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>935</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>160</v>
@@ -15632,18 +15588,18 @@
         <v>0</v>
       </c>
       <c r="S214" s="1" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A215" s="14" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>163</v>
@@ -15659,13 +15615,13 @@
         <v>0</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="L215" s="1" t="s">
         <v>339</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="P215" s="1" t="s">
         <v>153</v>
@@ -15676,10 +15632,10 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A216" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>961</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>47</v>
@@ -15698,15 +15654,15 @@
         <v>0</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A217" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>47</v>
@@ -15725,11 +15681,11 @@
         <v>0</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T207" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T217" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6DC804-4506-493F-9CA4-AF559B43EAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBE036E-CFF7-4084-96ED-01137A7A2DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19470" yWindow="4270" windowWidth="18940" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4287,9 +4287,6 @@
     <t>73052</t>
   </si>
   <si>
-    <t>73005,73001,73006</t>
-  </si>
-  <si>
     <t>73005,73006,73009</t>
   </si>
   <si>
@@ -4306,9 +4303,6 @@
   </si>
   <si>
     <t>73008,73011,73006</t>
-  </si>
-  <si>
-    <t>73012,73013,7302</t>
   </si>
   <si>
     <t>73012,73013</t>
@@ -7869,6 +7863,14 @@
   </si>
   <si>
     <t>4,4,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73005,73001,73006,73009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73012,73013,73002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8292,10 +8294,10 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M214" sqref="M214"/>
+      <selection pane="bottomRight" activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8537,7 +8539,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>153</v>
@@ -8568,7 +8570,7 @@
         <v>71002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>45</v>
@@ -8602,7 +8604,7 @@
         <v>71003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>45</v>
@@ -8636,7 +8638,7 @@
         <v>71004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -8670,10 +8672,10 @@
         <v>71005</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>181</v>
@@ -8697,7 +8699,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>408</v>
@@ -8708,7 +8710,7 @@
         <v>71006</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>45</v>
@@ -8742,7 +8744,7 @@
         <v>71007</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
@@ -8776,10 +8778,10 @@
         <v>71008</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>173</v>
@@ -8803,7 +8805,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="R12" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
@@ -8811,10 +8813,10 @@
         <v>71009</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>160</v>
@@ -8846,10 +8848,10 @@
         <v>71010</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>181</v>
@@ -8872,10 +8874,10 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
@@ -8883,10 +8885,10 @@
         <v>71011</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>181</v>
@@ -8911,10 +8913,10 @@
       </c>
       <c r="K15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
@@ -8922,7 +8924,7 @@
         <v>71012</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>45</v>
@@ -8955,10 +8957,10 @@
         <v>71013</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>160</v>
@@ -8976,12 +8978,12 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="S17" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
@@ -8989,7 +8991,7 @@
         <v>71014</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>45</v>
@@ -9022,10 +9024,10 @@
         <v>71015</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>181</v>
@@ -9050,10 +9052,10 @@
       </c>
       <c r="K19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
@@ -9061,7 +9063,7 @@
         <v>71016</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>45</v>
@@ -9094,10 +9096,10 @@
         <v>71017</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>181</v>
@@ -9122,10 +9124,10 @@
       </c>
       <c r="K21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.4">
@@ -9133,7 +9135,7 @@
         <v>71018</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>45</v>
@@ -9154,10 +9156,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -9166,10 +9168,10 @@
         <v>71019</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>163</v>
@@ -9197,10 +9199,10 @@
         <v>157</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.4">
@@ -9208,7 +9210,7 @@
         <v>71020</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
@@ -9241,7 +9243,7 @@
         <v>71021</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>45</v>
@@ -9274,7 +9276,7 @@
         <v>71022</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>45</v>
@@ -9295,10 +9297,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -9310,7 +9312,7 @@
         <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>153</v>
@@ -9340,7 +9342,7 @@
         <v>71024</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>45</v>
@@ -9373,10 +9375,10 @@
         <v>71025</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>181</v>
@@ -9399,10 +9401,10 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
@@ -9410,7 +9412,7 @@
         <v>71026</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>45</v>
@@ -9443,10 +9445,10 @@
         <v>71027</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>163</v>
@@ -9469,13 +9471,13 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>163</v>
@@ -9489,7 +9491,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>163</v>
@@ -9531,7 +9533,7 @@
         <v>71029</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>45</v>
@@ -9564,7 +9566,7 @@
         <v>71030</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>45</v>
@@ -9597,10 +9599,10 @@
         <v>71031</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>163</v>
@@ -9622,19 +9624,19 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>157</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.4">
@@ -9642,7 +9644,7 @@
         <v>71032</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>45</v>
@@ -9663,10 +9665,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -9675,7 +9677,7 @@
         <v>71033</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
@@ -9699,7 +9701,7 @@
         <v>120</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K37" s="3"/>
     </row>
@@ -9711,7 +9713,7 @@
         <v>169</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>163</v>
@@ -9732,7 +9734,7 @@
         <v>121</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>152</v>
@@ -9744,7 +9746,7 @@
         <v>171</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>173</v>
@@ -9758,7 +9760,7 @@
         <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>153</v>
@@ -9788,7 +9790,7 @@
         <v>71036</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -9812,7 +9814,7 @@
         <v>123</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -9821,7 +9823,7 @@
         <v>71037</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
@@ -9854,10 +9856,10 @@
         <v>71038</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>160</v>
@@ -9880,7 +9882,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="S42" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.4">
@@ -9888,10 +9890,10 @@
         <v>71039</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>160</v>
@@ -9903,7 +9905,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H43" s="6" t="b">
         <v>0</v>
@@ -9914,7 +9916,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="S43" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.4">
@@ -9922,10 +9924,10 @@
         <v>71040</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>160</v>
@@ -9948,7 +9950,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="S44" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.4">
@@ -9956,7 +9958,7 @@
         <v>71041</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>45</v>
@@ -9977,10 +9979,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -9989,10 +9991,10 @@
         <v>71042</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>160</v>
@@ -10026,10 +10028,10 @@
         <v>71043</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>160</v>
@@ -10061,10 +10063,10 @@
         <v>71044</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>181</v>
@@ -10087,10 +10089,10 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
@@ -10098,10 +10100,10 @@
         <v>71045</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>160</v>
@@ -10124,7 +10126,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="S49" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
@@ -10132,10 +10134,10 @@
         <v>152</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>160</v>
@@ -10166,10 +10168,10 @@
         <v>162</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>163</v>
@@ -10196,7 +10198,7 @@
         <v>153</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.4">
@@ -10204,7 +10206,7 @@
         <v>166</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>47</v>
@@ -10234,7 +10236,7 @@
         <v>172</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>173</v>
@@ -10250,7 +10252,7 @@
       </c>
       <c r="K53" s="3"/>
       <c r="R53" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
@@ -10258,10 +10260,10 @@
         <v>176</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>163</v>
@@ -10296,7 +10298,7 @@
         <v>178</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>47</v>
@@ -10323,10 +10325,10 @@
         <v>180</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>181</v>
@@ -10341,7 +10343,7 @@
         <v>159</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>153</v>
@@ -10349,13 +10351,13 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A57" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>160</v>
@@ -10364,10 +10366,10 @@
         <v>153</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>159</v>
@@ -10378,18 +10380,18 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="S57" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A58" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>181</v>
@@ -10398,36 +10400,36 @@
         <v>153</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>173</v>
@@ -10436,41 +10438,41 @@
         <v>153</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="R59" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>278</v>
@@ -10479,23 +10481,23 @@
         <v>159</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="S60" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A61" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>160</v>
@@ -10504,133 +10506,133 @@
         <v>153</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="S61" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A62" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A63" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A64" s="14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="S64" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A65" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>47</v>
@@ -10639,32 +10641,32 @@
         <v>134</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A66" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>47</v>
@@ -10673,66 +10675,66 @@
         <v>134</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A67" s="14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="R67" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A68" s="14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>47</v>
@@ -10741,7 +10743,7 @@
         <v>134</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>159</v>
@@ -10750,17 +10752,17 @@
         <v>159</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A69" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>47</v>
@@ -10769,7 +10771,7 @@
         <v>181</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>159</v>
@@ -10778,27 +10780,27 @@
         <v>159</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A70" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>159</v>
@@ -10809,15 +10811,15 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="R70" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A71" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>47</v>
@@ -10826,7 +10828,7 @@
         <v>134</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>159</v>
@@ -10835,26 +10837,26 @@
         <v>159</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A72" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>159</v>
@@ -10863,7 +10865,7 @@
         <v>159</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>153</v>
@@ -10871,19 +10873,19 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A73" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>159</v>
@@ -10892,29 +10894,29 @@
         <v>159</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>163</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A74" s="14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>47</v>
@@ -10923,7 +10925,7 @@
         <v>160</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>159</v>
@@ -10934,24 +10936,24 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="S74" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A75" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>159</v>
@@ -10960,35 +10962,35 @@
         <v>159</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A76" s="14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>159</v>
@@ -10997,27 +10999,27 @@
         <v>159</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A77" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>159</v>
@@ -11026,26 +11028,26 @@
         <v>159</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A78" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>159</v>
@@ -11054,29 +11056,29 @@
         <v>159</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A79" s="14" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>47</v>
@@ -11085,7 +11087,7 @@
         <v>160</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>159</v>
@@ -11096,18 +11098,18 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="S79" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A80" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>134</v>
@@ -11122,7 +11124,7 @@
         <v>159</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -11158,7 +11160,7 @@
         <v>70</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>153</v>
@@ -11179,7 +11181,7 @@
         <v>190</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.4">
@@ -11187,7 +11189,7 @@
         <v>189</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>47</v>
@@ -11219,7 +11221,7 @@
         <v>190</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>47</v>
@@ -11251,10 +11253,10 @@
         <v>191</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>181</v>
@@ -11276,10 +11278,10 @@
       </c>
       <c r="J85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.4">
@@ -11287,10 +11289,10 @@
         <v>192</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>173</v>
@@ -11312,7 +11314,7 @@
       </c>
       <c r="Q86" s="3"/>
       <c r="R86" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.4">
@@ -11320,7 +11322,7 @@
         <v>193</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>47</v>
@@ -11352,7 +11354,7 @@
         <v>194</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>47</v>
@@ -11376,7 +11378,7 @@
         <v>301</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.4">
@@ -11384,7 +11386,7 @@
         <v>195</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>47</v>
@@ -11408,7 +11410,7 @@
         <v>302</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.4">
@@ -11416,7 +11418,7 @@
         <v>196</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>47</v>
@@ -11437,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>329</v>
@@ -11448,7 +11450,7 @@
         <v>197</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>47</v>
@@ -11463,16 +11465,16 @@
         <v>247</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H91" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.4">
@@ -11480,7 +11482,7 @@
         <v>198</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>47</v>
@@ -11512,10 +11514,10 @@
         <v>199</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>181</v>
@@ -11536,10 +11538,10 @@
         <v>195</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.4">
@@ -11547,10 +11549,10 @@
         <v>200</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>181</v>
@@ -11571,10 +11573,10 @@
         <v>304</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>173</v>
@@ -11585,7 +11587,7 @@
         <v>201</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>47</v>
@@ -11609,7 +11611,7 @@
         <v>305</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.4">
@@ -11617,7 +11619,7 @@
         <v>202</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>47</v>
@@ -11641,7 +11643,7 @@
         <v>306</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.4">
@@ -11652,7 +11654,7 @@
         <v>70</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>153</v>
@@ -11681,10 +11683,10 @@
         <v>204</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>163</v>
@@ -11705,13 +11707,13 @@
         <v>308</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>297</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>153</v>
@@ -11725,10 +11727,10 @@
         <v>205</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>160</v>
@@ -11752,7 +11754,7 @@
         <v>330</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.4">
@@ -11760,10 +11762,10 @@
         <v>206</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>181</v>
@@ -11781,16 +11783,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.4">
@@ -11798,7 +11800,7 @@
         <v>207</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>47</v>
@@ -11813,16 +11815,16 @@
         <v>247</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.4">
@@ -11830,7 +11832,7 @@
         <v>208</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>47</v>
@@ -11862,7 +11864,7 @@
         <v>209</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>47</v>
@@ -11894,7 +11896,7 @@
         <v>210</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>47</v>
@@ -11926,7 +11928,7 @@
         <v>211</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>47</v>
@@ -11958,7 +11960,7 @@
         <v>212</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>47</v>
@@ -11990,10 +11992,10 @@
         <v>213</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>163</v>
@@ -12015,13 +12017,13 @@
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>297</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>153</v>
@@ -12038,7 +12040,7 @@
         <v>70</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>153</v>
@@ -12067,7 +12069,7 @@
         <v>215</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>47</v>
@@ -12088,10 +12090,10 @@
         <v>0</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.4">
@@ -12099,10 +12101,10 @@
         <v>216</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>160</v>
@@ -12123,7 +12125,7 @@
         <v>215</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.4">
@@ -12131,10 +12133,10 @@
         <v>217</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>160</v>
@@ -12152,13 +12154,13 @@
         <v>0</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.4">
@@ -12166,10 +12168,10 @@
         <v>218</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>181</v>
@@ -12187,13 +12189,13 @@
         <v>0</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.4">
@@ -12201,7 +12203,7 @@
         <v>219</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>47</v>
@@ -12233,10 +12235,10 @@
         <v>220</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>163</v>
@@ -12260,10 +12262,10 @@
         <v>334</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>153</v>
@@ -12277,7 +12279,7 @@
         <v>221</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>47</v>
@@ -12309,7 +12311,7 @@
         <v>222</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>47</v>
@@ -12330,10 +12332,10 @@
         <v>0</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.4">
@@ -12341,10 +12343,10 @@
         <v>223</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>160</v>
@@ -12365,10 +12367,10 @@
         <v>320</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.4">
@@ -12376,10 +12378,10 @@
         <v>224</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>181</v>
@@ -12401,10 +12403,10 @@
       </c>
       <c r="J118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.4">
@@ -12412,7 +12414,7 @@
         <v>225</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>47</v>
@@ -12427,16 +12429,16 @@
         <v>247</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H119" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.4">
@@ -12444,10 +12446,10 @@
         <v>226</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>160</v>
@@ -12469,7 +12471,7 @@
       </c>
       <c r="J120" s="3"/>
       <c r="S120" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.4">
@@ -12477,7 +12479,7 @@
         <v>227</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>47</v>
@@ -12498,13 +12500,13 @@
         <v>0</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="122" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.4">
@@ -12535,10 +12537,10 @@
         <v>229</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>163</v>
@@ -12560,13 +12562,13 @@
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>297</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>160</v>
@@ -12580,10 +12582,10 @@
         <v>230</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>181</v>
@@ -12601,14 +12603,14 @@
         <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J124" s="3"/>
       <c r="M124" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.4">
@@ -12619,7 +12621,7 @@
         <v>70</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>153</v>
@@ -12648,7 +12650,7 @@
         <v>232</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>47</v>
@@ -12680,7 +12682,7 @@
         <v>233</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>47</v>
@@ -12712,7 +12714,7 @@
         <v>234</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>47</v>
@@ -12744,7 +12746,7 @@
         <v>235</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>47</v>
@@ -12776,7 +12778,7 @@
         <v>236</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>47</v>
@@ -12808,7 +12810,7 @@
         <v>237</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>47</v>
@@ -12837,10 +12839,10 @@
         <v>238</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>181</v>
@@ -12861,10 +12863,10 @@
         <v>233</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.4">
@@ -12872,7 +12874,7 @@
         <v>239</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>47</v>
@@ -12901,7 +12903,7 @@
         <v>240</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>47</v>
@@ -12930,7 +12932,7 @@
         <v>241</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>47</v>
@@ -12959,10 +12961,10 @@
         <v>242</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>160</v>
@@ -12974,13 +12976,13 @@
         <v>247</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H136" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -12990,10 +12992,10 @@
         <v>243</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>181</v>
@@ -13005,19 +13007,19 @@
         <v>247</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H137" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.4">
@@ -13025,10 +13027,10 @@
         <v>244</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>181</v>
@@ -13040,22 +13042,22 @@
         <v>247</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H138" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.4">
@@ -13063,10 +13065,10 @@
         <v>245</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>173</v>
@@ -13078,16 +13080,16 @@
         <v>247</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H139" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="R139" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.4">
@@ -13095,10 +13097,10 @@
         <v>246</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>181</v>
@@ -13110,27 +13112,27 @@
         <v>247</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H140" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A141" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>47</v>
@@ -13145,27 +13147,27 @@
         <v>247</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H141" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A142" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>173</v>
@@ -13177,27 +13179,27 @@
         <v>247</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H142" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="R142" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A143" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>181</v>
@@ -13209,27 +13211,27 @@
         <v>247</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H143" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A144" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>47</v>
@@ -13244,27 +13246,27 @@
         <v>247</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H144" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A145" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>163</v>
@@ -13276,33 +13278,33 @@
         <v>247</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H145" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L145" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="O145" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="P145" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A146" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>47</v>
@@ -13320,15 +13322,15 @@
         <v>0</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A147" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>47</v>
@@ -13346,18 +13348,18 @@
         <v>0</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A148" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>160</v>
@@ -13372,18 +13374,18 @@
         <v>0</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A149" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>181</v>
@@ -13398,21 +13400,21 @@
         <v>0</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A150" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>181</v>
@@ -13427,21 +13429,21 @@
         <v>0</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A151" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>160</v>
@@ -13456,18 +13458,18 @@
         <v>0</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A152" s="15" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>134</v>
@@ -13482,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="153" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -13516,7 +13518,7 @@
         <v>70</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>153</v>
@@ -13545,7 +13547,7 @@
         <v>342</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>47</v>
@@ -13566,10 +13568,10 @@
         <v>0</v>
       </c>
       <c r="I155" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="J155" s="12" t="s">
         <v>467</v>
-      </c>
-      <c r="J155" s="12" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.4">
@@ -13577,10 +13579,10 @@
         <v>343</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>181</v>
@@ -13601,10 +13603,10 @@
         <v>447</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.4">
@@ -13612,7 +13614,7 @@
         <v>344</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>47</v>
@@ -13633,10 +13635,10 @@
         <v>0</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.4">
@@ -13644,7 +13646,7 @@
         <v>345</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>47</v>
@@ -13665,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J158" s="12" t="s">
         <v>447</v>
@@ -13676,7 +13678,7 @@
         <v>346</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>47</v>
@@ -13697,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J159" s="12" t="s">
         <v>448</v>
@@ -13708,10 +13710,10 @@
         <v>347</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>181</v>
@@ -13729,16 +13731,16 @@
         <v>0</v>
       </c>
       <c r="I160" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="J160" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="J160" s="12" t="s">
-        <v>473</v>
-      </c>
       <c r="M160" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.4">
@@ -13746,10 +13748,10 @@
         <v>348</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>181</v>
@@ -13770,10 +13772,10 @@
         <v>448</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.4">
@@ -13781,10 +13783,10 @@
         <v>349</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>163</v>
@@ -13802,17 +13804,17 @@
         <v>0</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>474</v>
+        <v>981</v>
       </c>
       <c r="J162" s="12"/>
       <c r="K162" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>339</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="P162" s="1" t="s">
         <v>153</v>
@@ -13823,10 +13825,10 @@
         <v>350</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>163</v>
@@ -13844,17 +13846,17 @@
         <v>0</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J163" s="12"/>
       <c r="K163" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="O163" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="P163" s="3" t="s">
         <v>153</v>
@@ -13865,10 +13867,10 @@
         <v>351</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>163</v>
@@ -13886,17 +13888,17 @@
         <v>0</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J164" s="12"/>
       <c r="K164" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="O164" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="P164" s="3" t="s">
         <v>153</v>
@@ -13907,10 +13909,10 @@
         <v>352</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>181</v>
@@ -13931,10 +13933,10 @@
         <v>449</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.4">
@@ -13942,10 +13944,10 @@
         <v>353</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>181</v>
@@ -13967,7 +13969,7 @@
       </c>
       <c r="L166" s="3"/>
       <c r="M166" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N166" s="3" t="s">
         <v>153</v>
@@ -13978,10 +13980,10 @@
         <v>354</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>160</v>
@@ -13999,13 +14001,13 @@
         <v>0</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.4">
@@ -14016,7 +14018,7 @@
         <v>70</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>153</v>
@@ -14034,10 +14036,10 @@
         <v>0</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.4">
@@ -14045,7 +14047,7 @@
         <v>356</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>47</v>
@@ -14066,10 +14068,10 @@
         <v>0</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.4">
@@ -14077,10 +14079,10 @@
         <v>357</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>181</v>
@@ -14101,10 +14103,10 @@
         <v>450</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.4">
@@ -14112,7 +14114,7 @@
         <v>358</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>47</v>
@@ -14133,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J171" s="12" t="s">
         <v>451</v>
@@ -14144,10 +14146,10 @@
         <v>359</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>181</v>
@@ -14168,10 +14170,10 @@
         <v>452</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.4">
@@ -14179,7 +14181,7 @@
         <v>360</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>47</v>
@@ -14200,10 +14202,10 @@
         <v>0</v>
       </c>
       <c r="I173" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.4">
@@ -14211,7 +14213,7 @@
         <v>361</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>47</v>
@@ -14232,10 +14234,10 @@
         <v>0</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.4">
@@ -14243,7 +14245,7 @@
         <v>362</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>47</v>
@@ -14264,7 +14266,7 @@
         <v>0</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J175" s="12" t="s">
         <v>453</v>
@@ -14275,10 +14277,10 @@
         <v>363</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>181</v>
@@ -14299,10 +14301,10 @@
         <v>454</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.4">
@@ -14310,10 +14312,10 @@
         <v>364</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>181</v>
@@ -14334,10 +14336,10 @@
         <v>455</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.4">
@@ -14345,10 +14347,10 @@
         <v>365</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>160</v>
@@ -14366,13 +14368,13 @@
         <v>0</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J178" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="S178" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.4">
@@ -14380,10 +14382,10 @@
         <v>366</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>163</v>
@@ -14401,23 +14403,23 @@
         <v>0</v>
       </c>
       <c r="I179" s="22" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="J179" s="12"/>
       <c r="K179" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="O179" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="P179" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.4">
@@ -14425,10 +14427,10 @@
         <v>367</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>160</v>
@@ -14446,13 +14448,13 @@
         <v>0</v>
       </c>
       <c r="I180" s="22" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.4">
@@ -14460,7 +14462,7 @@
         <v>368</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>47</v>
@@ -14481,10 +14483,10 @@
         <v>0</v>
       </c>
       <c r="I181" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.4">
@@ -14492,7 +14494,7 @@
         <v>369</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>47</v>
@@ -14513,10 +14515,10 @@
         <v>0</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.4">
@@ -14524,10 +14526,10 @@
         <v>370</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>181</v>
@@ -14545,16 +14547,16 @@
         <v>0</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J183" s="12" t="s">
         <v>456</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.4">
@@ -14562,7 +14564,7 @@
         <v>371</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>47</v>
@@ -14583,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J184" s="12" t="s">
         <v>457</v>
@@ -14594,7 +14596,7 @@
         <v>372</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>47</v>
@@ -14615,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J185" s="12" t="s">
         <v>458</v>
@@ -14626,10 +14628,10 @@
         <v>373</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>160</v>
@@ -14647,11 +14649,11 @@
         <v>0</v>
       </c>
       <c r="I186" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J186" s="12"/>
       <c r="S186" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.4">
@@ -14659,10 +14661,10 @@
         <v>374</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>181</v>
@@ -14683,7 +14685,7 @@
         <v>458</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="N187" s="1" t="s">
         <v>153</v>
@@ -14697,7 +14699,7 @@
         <v>70</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>153</v>
@@ -14715,10 +14717,10 @@
         <v>0</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.4">
@@ -14726,7 +14728,7 @@
         <v>376</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>47</v>
@@ -14755,7 +14757,7 @@
         <v>377</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>47</v>
@@ -14776,7 +14778,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J190" s="12" t="s">
         <v>460</v>
@@ -14787,10 +14789,10 @@
         <v>378</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>181</v>
@@ -14811,10 +14813,10 @@
         <v>461</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.4">
@@ -14822,7 +14824,7 @@
         <v>379</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>47</v>
@@ -14843,10 +14845,10 @@
         <v>0</v>
       </c>
       <c r="I192" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J192" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.4">
@@ -14854,7 +14856,7 @@
         <v>380</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>47</v>
@@ -14875,10 +14877,10 @@
         <v>0</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J193" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.4">
@@ -14886,10 +14888,10 @@
         <v>381</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>160</v>
@@ -14907,13 +14909,13 @@
         <v>0</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J194" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="S194" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.4">
@@ -14921,10 +14923,10 @@
         <v>382</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>181</v>
@@ -14945,7 +14947,7 @@
         <v>462</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="N195" s="1" t="s">
         <v>153</v>
@@ -14956,10 +14958,10 @@
         <v>383</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>181</v>
@@ -14980,7 +14982,7 @@
         <v>462</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="N196" s="1" t="s">
         <v>153</v>
@@ -14991,7 +14993,7 @@
         <v>384</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>47</v>
@@ -15012,10 +15014,10 @@
         <v>0</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J197" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.4">
@@ -15023,7 +15025,7 @@
         <v>385</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>47</v>
@@ -15044,10 +15046,10 @@
         <v>0</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.4">
@@ -15055,7 +15057,7 @@
         <v>386</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>47</v>
@@ -15076,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J199" s="12" t="s">
         <v>463</v>
@@ -15087,7 +15089,7 @@
         <v>387</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>47</v>
@@ -15108,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J200" s="12" t="s">
         <v>464</v>
@@ -15119,10 +15121,10 @@
         <v>388</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>181</v>
@@ -15143,10 +15145,10 @@
         <v>463</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.4">
@@ -15175,11 +15177,11 @@
         <v>0</v>
       </c>
       <c r="I202" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J202" s="12"/>
       <c r="K202" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.4">
@@ -15187,10 +15189,10 @@
         <v>390</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>163</v>
@@ -15208,17 +15210,17 @@
         <v>0</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J203" s="12"/>
       <c r="K203" s="12" t="s">
         <v>465</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="P203" s="3" t="s">
         <v>181</v>
@@ -15235,7 +15237,7 @@
         <v>70</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>153</v>
@@ -15253,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J204" s="12" t="s">
         <v>466</v>
@@ -15264,10 +15266,10 @@
         <v>392</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>160</v>
@@ -15285,13 +15287,13 @@
         <v>0</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J205" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="S205" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.4">
@@ -15299,10 +15301,10 @@
         <v>393</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>181</v>
@@ -15323,7 +15325,7 @@
         <v>466</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="N206" s="3" t="s">
         <v>153</v>
@@ -15334,10 +15336,10 @@
         <v>394</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>181</v>
@@ -15358,7 +15360,7 @@
         <v>466</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="N207" s="3" t="s">
         <v>153</v>
@@ -15366,10 +15368,10 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A208" s="14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>47</v>
@@ -15388,18 +15390,18 @@
         <v>0</v>
       </c>
       <c r="S208" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A209" s="14" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>160</v>
@@ -15411,27 +15413,27 @@
         <v>247</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H209" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="S209" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A210" s="14" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>163</v>
@@ -15443,19 +15445,19 @@
         <v>247</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H210" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="P210" s="3" t="s">
         <v>153</v>
@@ -15463,13 +15465,13 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A211" s="14" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>163</v>
@@ -15481,25 +15483,25 @@
         <v>247</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H211" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="P211" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="Q211" s="3" t="s">
         <v>160</v>
@@ -15507,10 +15509,10 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A212" s="14" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>47</v>
@@ -15529,18 +15531,18 @@
         <v>0</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A213" s="14" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>160</v>
@@ -15552,27 +15554,27 @@
         <v>247</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H213" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="S213" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A214" s="14" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>160</v>
@@ -15588,18 +15590,18 @@
         <v>0</v>
       </c>
       <c r="S214" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A215" s="14" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>163</v>
@@ -15615,27 +15617,27 @@
         <v>0</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="L215" s="1" t="s">
         <v>339</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="P215" s="1" t="s">
         <v>153</v>
       </c>
       <c r="Q215" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A216" s="14" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>47</v>
@@ -15654,15 +15656,15 @@
         <v>0</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A217" s="14" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>47</v>
@@ -15681,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/ExploreNode.xlsx
+++ b/Configs/ExploreNode.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBE036E-CFF7-4084-96ED-01137A7A2DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8ECD43-4A3C-4555-9775-CD90FAB5B8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19470" yWindow="4270" windowWidth="18940" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1140" windowWidth="24307" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$216</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="982">
   <si>
     <t>id</t>
   </si>
@@ -1489,6 +1489,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>71048</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give_Ridia_Axe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>损坏的窑炉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>7</t>
     </r>
@@ -1501,20 +1513,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1048</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>71048</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Give_Ridia_Axe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>损坏的窑炉</t>
+      <t>1049</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0002</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完好的窑炉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hear_Star_Servant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encounter_Woman</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1530,7 +1563,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1049</t>
+      <t>1050</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1547,24 +1580,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0002</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完好的窑炉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hear_Star_Servant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encounter_Woman</t>
+      <t>0022</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1580,25 +1597,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1050</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0022</t>
-    </r>
+      <t>1051</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save_Camus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1614,27 +1618,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1051</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save_Camus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1052</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1810,9 +1793,6 @@
   </si>
   <si>
     <t>72040</t>
-  </si>
-  <si>
-    <t>72041</t>
   </si>
   <si>
     <t>72042</t>
@@ -7871,6 +7851,26 @@
   </si>
   <si>
     <t>73012,73013,73002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1048</t>
+    </r>
+  </si>
+  <si>
+    <t>71025</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7932,7 +7932,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7951,12 +7951,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7970,7 +7964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8007,14 +8001,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -8291,13 +8277,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T217"/>
+  <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C194" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I155" sqref="I155"/>
+      <selection pane="bottomRight" activeCell="K200" sqref="K200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8539,7 +8525,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>153</v>
@@ -8570,7 +8556,7 @@
         <v>71002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>45</v>
@@ -8594,7 +8580,7 @@
         <v>94</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -8604,7 +8590,7 @@
         <v>71003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>45</v>
@@ -8625,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>131</v>
@@ -8638,7 +8624,7 @@
         <v>71004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
@@ -8672,13 +8658,13 @@
         <v>71005</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -8699,10 +8685,10 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
@@ -8710,7 +8696,7 @@
         <v>71006</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>45</v>
@@ -8744,7 +8730,7 @@
         <v>71007</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
@@ -8778,13 +8764,13 @@
         <v>71008</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -8805,7 +8791,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="R12" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
@@ -8813,10 +8799,10 @@
         <v>71009</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>160</v>
@@ -8848,13 +8834,13 @@
         <v>71010</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -8874,10 +8860,10 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
@@ -8885,13 +8871,13 @@
         <v>71011</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -8906,17 +8892,17 @@
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>138</v>
       </c>
       <c r="K15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
@@ -8924,7 +8910,7 @@
         <v>71012</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>45</v>
@@ -8957,10 +8943,10 @@
         <v>71013</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>160</v>
@@ -8978,12 +8964,12 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="S17" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
@@ -8991,7 +8977,7 @@
         <v>71014</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>45</v>
@@ -9024,13 +9010,13 @@
         <v>71015</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -9052,10 +9038,10 @@
       </c>
       <c r="K19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
@@ -9063,7 +9049,7 @@
         <v>71016</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>45</v>
@@ -9096,13 +9082,13 @@
         <v>71017</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -9124,10 +9110,10 @@
       </c>
       <c r="K21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.4">
@@ -9135,7 +9121,7 @@
         <v>71018</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>45</v>
@@ -9156,10 +9142,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -9168,10 +9154,10 @@
         <v>71019</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>163</v>
@@ -9199,10 +9185,10 @@
         <v>157</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.4">
@@ -9210,7 +9196,7 @@
         <v>71020</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
@@ -9243,7 +9229,7 @@
         <v>71021</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>45</v>
@@ -9276,7 +9262,7 @@
         <v>71022</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>45</v>
@@ -9297,10 +9283,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -9312,7 +9298,7 @@
         <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>153</v>
@@ -9342,7 +9328,7 @@
         <v>71024</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>45</v>
@@ -9371,17 +9357,17 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A29" s="15">
-        <v>71025</v>
+      <c r="A29" s="15" t="s">
+        <v>981</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -9401,10 +9387,10 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
@@ -9412,7 +9398,7 @@
         <v>71026</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>45</v>
@@ -9445,10 +9431,10 @@
         <v>71027</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>163</v>
@@ -9471,13 +9457,13 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>163</v>
@@ -9491,7 +9477,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>163</v>
@@ -9533,7 +9519,7 @@
         <v>71029</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>45</v>
@@ -9566,7 +9552,7 @@
         <v>71030</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>45</v>
@@ -9599,10 +9585,10 @@
         <v>71031</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>163</v>
@@ -9624,19 +9610,19 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>157</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.4">
@@ -9644,7 +9630,7 @@
         <v>71032</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>45</v>
@@ -9665,10 +9651,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K36" s="3"/>
     </row>
@@ -9677,7 +9663,7 @@
         <v>71033</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
@@ -9701,7 +9687,7 @@
         <v>120</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K37" s="3"/>
     </row>
@@ -9710,10 +9696,10 @@
         <v>71034</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>163</v>
@@ -9734,22 +9720,22 @@
         <v>121</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>152</v>
       </c>
       <c r="L38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O38" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="P38" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.4">
@@ -9760,7 +9746,7 @@
         <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>153</v>
@@ -9790,7 +9776,7 @@
         <v>71036</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -9814,7 +9800,7 @@
         <v>123</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -9823,7 +9809,7 @@
         <v>71037</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
@@ -9856,10 +9842,10 @@
         <v>71038</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>160</v>
@@ -9882,7 +9868,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="S42" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.4">
@@ -9890,10 +9876,10 @@
         <v>71039</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>160</v>
@@ -9905,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H43" s="6" t="b">
         <v>0</v>
@@ -9916,7 +9902,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="S43" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.4">
@@ -9924,10 +9910,10 @@
         <v>71040</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>160</v>
@@ -9950,7 +9936,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="S44" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.4">
@@ -9958,7 +9944,7 @@
         <v>71041</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>45</v>
@@ -9979,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -9991,10 +9977,10 @@
         <v>71042</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>160</v>
@@ -10020,7 +10006,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="S46" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.4">
@@ -10028,10 +10014,10 @@
         <v>71043</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>160</v>
@@ -10055,7 +10041,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="S47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.4">
@@ -10063,13 +10049,13 @@
         <v>71044</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -10089,10 +10075,10 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
@@ -10100,10 +10086,10 @@
         <v>71045</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>160</v>
@@ -10126,7 +10112,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="S49" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
@@ -10134,10 +10120,10 @@
         <v>152</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>160</v>
@@ -10160,7 +10146,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="S50" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.4">
@@ -10168,10 +10154,10 @@
         <v>162</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>163</v>
@@ -10189,7 +10175,7 @@
         <v>137</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>165</v>
@@ -10198,15 +10184,15 @@
         <v>153</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
-        <v>166</v>
+        <v>980</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>47</v>
@@ -10225,21 +10211,21 @@
       </c>
       <c r="L52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A53" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>153</v>
@@ -10252,18 +10238,18 @@
       </c>
       <c r="K53" s="3"/>
       <c r="R53" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A54" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>163</v>
@@ -10281,10 +10267,10 @@
         <v>156</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>153</v>
@@ -10295,10 +10281,10 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>47</v>
@@ -10317,21 +10303,21 @@
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A56" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>153</v>
@@ -10343,7 +10329,7 @@
         <v>159</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>153</v>
@@ -10351,13 +10337,13 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A57" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>160</v>
@@ -10366,10 +10352,10 @@
         <v>153</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>159</v>
@@ -10380,124 +10366,124 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="S57" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A58" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>153</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>153</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="R59" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="S60" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A61" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>160</v>
@@ -10506,133 +10492,133 @@
         <v>153</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="S61" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A62" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A63" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A64" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="S64" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A65" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>47</v>
@@ -10641,32 +10627,32 @@
         <v>134</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A66" s="14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>47</v>
@@ -10675,66 +10661,66 @@
         <v>134</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A67" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>159</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="R67" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A68" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>47</v>
@@ -10743,7 +10729,7 @@
         <v>134</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>159</v>
@@ -10752,26 +10738,26 @@
         <v>159</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A69" s="14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>159</v>
@@ -10780,27 +10766,27 @@
         <v>159</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A70" s="14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>159</v>
@@ -10811,15 +10797,15 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="R70" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A71" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>47</v>
@@ -10828,7 +10814,7 @@
         <v>134</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>159</v>
@@ -10837,26 +10823,26 @@
         <v>159</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A72" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>159</v>
@@ -10865,7 +10851,7 @@
         <v>159</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>153</v>
@@ -10873,19 +10859,19 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A73" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>159</v>
@@ -10894,29 +10880,29 @@
         <v>159</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>163</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A74" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>47</v>
@@ -10925,7 +10911,7 @@
         <v>160</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>159</v>
@@ -10936,24 +10922,24 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="S74" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A75" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>159</v>
@@ -10962,35 +10948,35 @@
         <v>159</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A76" s="14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>159</v>
@@ -10999,27 +10985,27 @@
         <v>159</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A77" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>159</v>
@@ -11028,26 +11014,26 @@
         <v>159</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A78" s="14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>159</v>
@@ -11056,29 +11042,29 @@
         <v>159</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A79" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>47</v>
@@ -11087,7 +11073,7 @@
         <v>160</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>159</v>
@@ -11098,18 +11084,18 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="S79" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A80" s="14" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>134</v>
@@ -11124,14 +11110,14 @@
         <v>159</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>158</v>
@@ -11143,7 +11129,7 @@
         <v>134</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>159</v>
@@ -11154,42 +11140,42 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A82" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>47</v>
@@ -11198,30 +11184,30 @@
         <v>134</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F83" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="H83" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>47</v>
@@ -11230,99 +11216,99 @@
         <v>133</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H84" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A85" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H85" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H86" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H86" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="Q86" s="3"/>
       <c r="R86" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A87" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>47</v>
@@ -11331,30 +11317,30 @@
         <v>133</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H87" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A88" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>47</v>
@@ -11363,30 +11349,30 @@
         <v>133</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H88" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A89" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>47</v>
@@ -11395,30 +11381,30 @@
         <v>133</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H89" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A90" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>47</v>
@@ -11427,30 +11413,30 @@
         <v>133</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H90" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A91" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>47</v>
@@ -11459,30 +11445,30 @@
         <v>133</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H91" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A92" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>47</v>
@@ -11491,103 +11477,103 @@
         <v>133</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H92" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A93" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H93" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M93" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H93" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>745</v>
-      </c>
       <c r="N93" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A94" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H94" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H94" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>748</v>
-      </c>
       <c r="N94" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A95" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>47</v>
@@ -11596,30 +11582,30 @@
         <v>133</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H95" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A96" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>47</v>
@@ -11628,92 +11614,92 @@
         <v>133</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H96" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A97" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H97" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A98" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>153</v>
@@ -11724,83 +11710,83 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A99" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A100" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H100" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="M100" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="H100" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>765</v>
-      </c>
       <c r="N100" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A101" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>47</v>
@@ -11809,30 +11795,30 @@
         <v>133</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A102" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>47</v>
@@ -11841,30 +11827,30 @@
         <v>133</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H102" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A103" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>47</v>
@@ -11873,30 +11859,30 @@
         <v>133</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H103" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A104" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>47</v>
@@ -11905,30 +11891,30 @@
         <v>133</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H104" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A105" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>47</v>
@@ -11937,30 +11923,30 @@
         <v>133</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H105" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A106" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>47</v>
@@ -11969,107 +11955,107 @@
         <v>133</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H106" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A107" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H107" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A108" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H108" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A109" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>47</v>
@@ -12078,132 +12064,132 @@
         <v>133</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H109" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A110" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H110" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A111" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A112" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H112" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="M112" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="N112" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H112" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="M112" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="N112" s="3" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A113" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>47</v>
@@ -12212,60 +12198,60 @@
         <v>133</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H113" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A114" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H114" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>153</v>
@@ -12276,10 +12262,10 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A115" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>47</v>
@@ -12288,30 +12274,30 @@
         <v>133</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H115" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A116" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>47</v>
@@ -12320,101 +12306,101 @@
         <v>133</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H116" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A117" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H117" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A118" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H118" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A119" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>47</v>
@@ -12423,63 +12409,63 @@
         <v>133</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H119" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A120" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H120" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J120" s="3"/>
       <c r="S120" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A121" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>47</v>
@@ -12488,169 +12474,178 @@
         <v>160</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H121" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E122" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F122" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G122" s="19"/>
-      <c r="H122" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A122" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H122" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q122" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A123" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H123" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>321</v>
+        <v>811</v>
       </c>
       <c r="J123" s="3"/>
-      <c r="K123" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O123" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="P123" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q123" s="3" t="s">
-        <v>163</v>
+      <c r="M123" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A124" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>815</v>
+        <v>229</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>816</v>
+        <v>610</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H124" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="J124" s="3"/>
-      <c r="M124" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="N124" s="3" t="s">
-        <v>818</v>
+        <v>320</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A125" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>70</v>
+        <v>230</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>612</v>
+        <v>47</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H125" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A126" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>47</v>
@@ -12659,30 +12654,30 @@
         <v>133</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H126" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A127" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>47</v>
@@ -12691,30 +12686,30 @@
         <v>133</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H127" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A128" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>47</v>
@@ -12723,30 +12718,30 @@
         <v>133</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H128" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A129" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>47</v>
@@ -12755,30 +12750,30 @@
         <v>133</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H129" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A130" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>47</v>
@@ -12787,94 +12782,91 @@
         <v>133</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H130" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A131" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>566</v>
+        <v>793</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>47</v>
+        <v>794</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H131" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A132" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>795</v>
+        <v>564</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>796</v>
+        <v>47</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H132" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M132" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="N132" s="3" t="s">
-        <v>798</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A133" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>47</v>
@@ -12883,27 +12875,27 @@
         <v>133</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H133" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A134" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>47</v>
@@ -12912,107 +12904,116 @@
         <v>133</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H134" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A135" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>566</v>
+        <v>821</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>47</v>
+        <v>820</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>296</v>
+        <v>706</v>
       </c>
       <c r="H135" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>236</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A136" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H136" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
+        <v>719</v>
+      </c>
+      <c r="M136" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A137" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H137" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I137" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="J137" s="3" t="s">
         <v>721</v>
       </c>
       <c r="M137" s="3" t="s">
@@ -13024,130 +13025,124 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A138" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H138" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="M138" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="R138" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="N138" s="3" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A139" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="G139" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H139" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="R139" s="3" t="s">
-        <v>834</v>
+        <v>722</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A140" s="15" t="s">
-        <v>246</v>
+        <v>695</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>835</v>
+        <v>564</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>836</v>
+        <v>47</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H140" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="M140" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="N140" s="3" t="s">
-        <v>838</v>
+        <v>725</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A141" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>566</v>
+        <v>837</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>47</v>
+        <v>838</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H141" s="6" t="b">
         <v>0</v>
@@ -13155,63 +13150,66 @@
       <c r="I141" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>728</v>
+      <c r="R141" s="3" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A142" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H142" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="R142" s="3" t="s">
-        <v>841</v>
+        <v>728</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A143" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>807</v>
+        <v>564</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>808</v>
+        <v>47</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H143" s="6" t="b">
         <v>0</v>
@@ -13219,92 +13217,83 @@
       <c r="I143" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="M143" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="N143" s="3" t="s">
-        <v>821</v>
+      <c r="J143" s="3" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A144" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>566</v>
+        <v>807</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>47</v>
+        <v>808</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H144" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
+      </c>
+      <c r="L144" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="P144" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A145" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>809</v>
+        <v>758</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>810</v>
+        <v>47</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>717</v>
+        <v>186</v>
+      </c>
+      <c r="F145" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="H145" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I145" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="L145" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="O145" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="P145" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q145" s="3" t="s">
-        <v>603</v>
+      <c r="K145" s="3" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A146" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>47</v>
@@ -13313,7 +13302,7 @@
         <v>133</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F146" s="6" t="b">
         <v>0</v>
@@ -13322,24 +13311,24 @@
         <v>0</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A147" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>47</v>
+        <v>780</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F147" s="6" t="b">
         <v>0</v>
@@ -13347,25 +13336,25 @@
       <c r="H147" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K147" s="3" t="s">
-        <v>778</v>
+      <c r="S147" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A148" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>783</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F148" s="6" t="b">
         <v>0</v>
@@ -13373,13 +13362,16 @@
       <c r="H148" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S148" s="1" t="s">
-        <v>791</v>
+      <c r="M148" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A149" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>785</v>
@@ -13388,10 +13380,10 @@
         <v>786</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F149" s="6" t="b">
         <v>0</v>
@@ -13400,27 +13392,27 @@
         <v>0</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A150" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F150" s="6" t="b">
         <v>0</v>
@@ -13428,28 +13420,25 @@
       <c r="H150" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="M150" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="N150" s="3" t="s">
-        <v>790</v>
+      <c r="S150" s="1" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A151" s="15" t="s">
-        <v>707</v>
+        <v>841</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F151" s="6" t="b">
         <v>0</v>
@@ -13457,164 +13446,170 @@
       <c r="H151" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S151" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A152" s="15" t="s">
-        <v>843</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="D152" s="3" t="s">
+      <c r="K151" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D152" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F152" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H152" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="8" t="s">
+      <c r="E152" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H152" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A153" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E153" s="8" t="s">
+      <c r="B153" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F153" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H153" s="11" t="b">
-        <v>0</v>
+      <c r="F153" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A154" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>70</v>
+        <v>340</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>612</v>
+        <v>47</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>247</v>
+        <v>394</v>
+      </c>
+      <c r="H154" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>446</v>
+        <v>978</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A155" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>566</v>
+        <v>843</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>47</v>
+        <v>855</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H155" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>980</v>
-      </c>
-      <c r="J155" s="12" t="s">
-        <v>467</v>
+        <v>445</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A156" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>845</v>
+        <v>564</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>857</v>
+        <v>47</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H156" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="M156" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="N156" s="1" t="s">
-        <v>847</v>
+        <v>466</v>
+      </c>
+      <c r="J156" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A157" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>47</v>
@@ -13623,30 +13618,30 @@
         <v>133</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H157" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A158" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>47</v>
@@ -13655,208 +13650,218 @@
         <v>133</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H158" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A159" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>566</v>
+        <v>846</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>47</v>
+        <v>856</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H159" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I159" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="J159" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="J159" s="12" t="s">
-        <v>448</v>
+      <c r="M159" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A160" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H160" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="J160" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="M160" s="3" t="s">
-        <v>964</v>
+        <v>446</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A161" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>857</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H161" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="N161" s="1" t="s">
-        <v>847</v>
+        <v>979</v>
+      </c>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A162" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H162" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>981</v>
+        <v>472</v>
       </c>
       <c r="J162" s="12"/>
       <c r="K162" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O162" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="P162" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="P162" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A163" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H163" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J163" s="12"/>
       <c r="K163" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="O163" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="P163" s="3" t="s">
         <v>153</v>
@@ -13864,179 +13869,169 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A164" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>849</v>
+        <v>350</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>853</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H164" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="N164" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="H164" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I164" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="O164" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="P164" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A165" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H165" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>449</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="L165" s="3"/>
       <c r="M165" s="3" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>861</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A166" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>852</v>
+        <v>626</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>853</v>
+        <v>626</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>407</v>
+        <v>245</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H166" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="N166" s="3" t="s">
-        <v>153</v>
+        <v>474</v>
+      </c>
+      <c r="J166" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A167" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>628</v>
+        <v>353</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>67</v>
+        <v>245</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="H167" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="S167" s="1" t="s">
-        <v>872</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A168" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>70</v>
+        <v>354</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>612</v>
+        <v>47</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H168" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J168" s="12" t="s">
         <v>477</v>
@@ -14044,144 +14039,144 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A169" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>566</v>
+        <v>862</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>47</v>
+        <v>863</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H169" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="J169" s="12" t="s">
-        <v>479</v>
+        <v>448</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A170" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>864</v>
+        <v>564</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>865</v>
+        <v>47</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H170" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="M170" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="N170" s="3" t="s">
-        <v>863</v>
+        <v>478</v>
+      </c>
+      <c r="J170" s="12" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A171" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>566</v>
+        <v>864</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>47</v>
+        <v>865</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H171" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="J171" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A172" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>866</v>
+        <v>358</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>867</v>
+        <v>47</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H172" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="M172" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>869</v>
+        <v>479</v>
+      </c>
+      <c r="J172" s="12" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A173" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>47</v>
@@ -14190,13 +14185,13 @@
         <v>133</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H173" s="6" t="b">
         <v>0</v>
@@ -14210,10 +14205,10 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A174" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>47</v>
@@ -14222,13 +14217,13 @@
         <v>133</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H174" s="6" t="b">
         <v>0</v>
@@ -14237,232 +14232,232 @@
         <v>483</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A175" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>566</v>
+        <v>918</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>47</v>
+        <v>919</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H175" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="J175" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A176" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H176" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I176" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A177" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>924</v>
+        <v>868</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>925</v>
+        <v>869</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H177" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="M177" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>927</v>
+        <v>484</v>
+      </c>
+      <c r="J177" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A178" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>870</v>
+        <v>364</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>873</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H178" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I178" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="J178" s="22" t="s">
-        <v>874</v>
-      </c>
-      <c r="S178" s="1" t="s">
-        <v>873</v>
+      <c r="I178" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="J178" s="12"/>
+      <c r="K178" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="P178" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A179" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H179" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I179" s="22" t="s">
-        <v>889</v>
-      </c>
-      <c r="J179" s="12"/>
-      <c r="K179" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="L179" s="3" t="s">
+      <c r="I179" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="J179" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="O179" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="P179" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q179" s="3" t="s">
-        <v>603</v>
+      <c r="S179" s="1" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A180" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>893</v>
+        <v>564</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>892</v>
+        <v>47</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H180" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I180" s="22" t="s">
-        <v>905</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="S180" s="1" t="s">
-        <v>906</v>
+      <c r="I180" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="J180" s="12" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A181" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>47</v>
@@ -14471,19 +14466,19 @@
         <v>133</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="H181" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I181" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J181" s="12" t="s">
         <v>487</v>
@@ -14491,25 +14486,25 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A182" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>566</v>
+        <v>368</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>47</v>
+        <v>923</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="H182" s="6" t="b">
         <v>0</v>
@@ -14518,53 +14513,53 @@
         <v>488</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>489</v>
+        <v>454</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A183" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>924</v>
+        <v>369</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>925</v>
+        <v>47</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>272</v>
+        <v>420</v>
       </c>
       <c r="H183" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="M183" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>927</v>
+        <v>455</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A184" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>47</v>
@@ -14573,162 +14568,159 @@
         <v>133</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H184" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A185" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>566</v>
+        <v>371</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>47</v>
+        <v>926</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H185" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="J185" s="12" t="s">
-        <v>458</v>
+        <v>491</v>
+      </c>
+      <c r="J185" s="12"/>
+      <c r="S185" s="1" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A186" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>628</v>
+        <v>933</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H186" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I186" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="J186" s="12"/>
-      <c r="S186" s="1" t="s">
-        <v>934</v>
+        <v>456</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A187" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>935</v>
+        <v>373</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>936</v>
+        <v>610</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H187" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I187" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="M187" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>153</v>
+        <v>492</v>
+      </c>
+      <c r="J187" s="12" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A188" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B188" s="13" t="s">
-        <v>70</v>
+        <v>374</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>612</v>
+        <v>47</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H188" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="J188" s="12" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A189" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>47</v>
@@ -14737,217 +14729,223 @@
         <v>133</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H189" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I189" s="12" t="s">
-        <v>459</v>
+        <v>494</v>
+      </c>
+      <c r="J189" s="12" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A190" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>566</v>
+        <v>936</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>47</v>
+        <v>937</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H190" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="J190" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A191" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>938</v>
+        <v>564</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>939</v>
+        <v>47</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H191" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I191" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="M191" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>941</v>
+        <v>495</v>
+      </c>
+      <c r="J191" s="12" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A192" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H192" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I192" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J192" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A193" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>566</v>
+        <v>940</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>47</v>
+        <v>941</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H193" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J193" s="12" t="s">
         <v>498</v>
       </c>
+      <c r="S193" s="1" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A194" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H194" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="J194" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="S194" s="1" t="s">
-        <v>948</v>
+        <v>460</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A195" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H195" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="M195" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="H195" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I195" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="M195" s="1" t="s">
-        <v>951</v>
       </c>
       <c r="N195" s="1" t="s">
         <v>153</v>
@@ -14955,45 +14953,42 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A196" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>949</v>
+        <v>564</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>950</v>
+        <v>47</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H196" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="M196" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>153</v>
+        <v>499</v>
+      </c>
+      <c r="J196" s="12" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A197" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>47</v>
@@ -15002,13 +14997,13 @@
         <v>133</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H197" s="6" t="b">
         <v>0</v>
@@ -15022,10 +15017,10 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A198" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>47</v>
@@ -15034,13 +15029,13 @@
         <v>133</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H198" s="6" t="b">
         <v>0</v>
@@ -15049,15 +15044,15 @@
         <v>503</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A199" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>47</v>
@@ -15066,266 +15061,269 @@
         <v>133</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H199" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I199" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J199" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A200" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>566</v>
+        <v>922</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>47</v>
+        <v>923</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H200" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="J200" s="12" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A201" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>924</v>
+        <v>47</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>925</v>
+        <v>47</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H201" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="M201" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>927</v>
+        <v>505</v>
+      </c>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A202" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>47</v>
+        <v>388</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>950</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>47</v>
+        <v>951</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H202" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I202" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J202" s="12"/>
       <c r="K202" s="12" t="s">
-        <v>507</v>
+        <v>463</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="O202" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="P202" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q202" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A203" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>952</v>
+        <v>389</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>953</v>
+        <v>610</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H203" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="J203" s="12"/>
-      <c r="K203" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="L203" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="O203" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="P203" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q203" s="3" t="s">
-        <v>153</v>
+        <v>507</v>
+      </c>
+      <c r="J203" s="12" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A204" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>70</v>
+        <v>390</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>956</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>612</v>
+        <v>957</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H204" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I204" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="J204" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="J204" s="12" t="s">
-        <v>466</v>
+      <c r="S204" s="1" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A205" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H205" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="J205" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="S205" s="1" t="s">
-        <v>960</v>
+        <v>464</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A206" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H206" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="N206" s="3" t="s">
         <v>153</v>
@@ -15333,254 +15331,246 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A207" s="14" t="s">
-        <v>394</v>
+        <v>876</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>955</v>
+        <v>877</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>956</v>
+        <v>47</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>445</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G207" s="3"/>
       <c r="H207" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I207" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="M207" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="N207" s="3" t="s">
-        <v>153</v>
+      <c r="S207" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A208" s="14" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>879</v>
+        <v>570</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>47</v>
+        <v>892</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G208" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>886</v>
+      </c>
       <c r="H208" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S208" s="1" t="s">
-        <v>880</v>
+      <c r="I208" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="S208" s="3" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A209" s="14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>572</v>
+        <v>905</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="H209" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="S209" s="3" t="s">
-        <v>891</v>
+        <v>879</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="O209" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="P209" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A210" s="14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H210" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>881</v>
+        <v>912</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>911</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>916</v>
+        <v>849</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="P210" s="3" t="s">
-        <v>153</v>
+        <v>900</v>
+      </c>
+      <c r="Q210" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A211" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>911</v>
+        <v>564</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>900</v>
+        <v>47</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G211" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G211" s="3"/>
+      <c r="H211" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K211" s="3" t="s">
         <v>896</v>
-      </c>
-      <c r="H211" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I211" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="K211" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="L211" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="O211" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="P211" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="Q211" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A212" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>566</v>
+        <v>897</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>47</v>
+        <v>910</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G212" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>908</v>
+      </c>
       <c r="H212" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K212" s="3" t="s">
-        <v>898</v>
+      <c r="I212" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="S212" s="1" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A213" s="14" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>910</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G213" s="3"/>
       <c r="H213" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I213" s="3" t="s">
-        <v>898</v>
-      </c>
       <c r="S213" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A214" s="14" t="s">
-        <v>903</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>917</v>
+        <v>902</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>164</v>
@@ -15589,25 +15579,37 @@
       <c r="H214" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="S214" s="1" t="s">
-        <v>919</v>
+      <c r="K214" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A215" s="14" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>932</v>
+        <v>47</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F215" s="7" t="s">
         <v>164</v>
@@ -15617,27 +15619,15 @@
         <v>0</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O215" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="P215" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q215" s="1" t="s">
-        <v>573</v>
+        <v>944</v>
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A216" s="14" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>47</v>
@@ -15646,7 +15636,7 @@
         <v>133</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>164</v>
@@ -15656,38 +15646,11 @@
         <v>0</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A217" s="14" t="s">
-        <v>930</v>
-      </c>
-      <c r="B217" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G217" s="3"/>
-      <c r="H217" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K217" s="1" t="s">
-        <v>947</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T217" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T216" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
